--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\OneDrive\Documenti\GitHub\FoodX-251_Classification\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F9BA40-EE21-4C6C-B063-E33E6C6A1F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE25E69-C6A9-4FB5-90A7-9EC0DE8D1797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Type</t>
   </si>
@@ -84,22 +84,19 @@
     <t>Estrazione Feature SIFT</t>
   </si>
   <si>
-    <t>5021 (20 Per Classe)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Estrazione Feature MobileNetV2 </t>
-  </si>
-  <si>
-    <t>5022 (20 Per Classe)</t>
   </si>
   <si>
     <t>Estrazione Feature MobileNetV3</t>
   </si>
   <si>
-    <t>5023 (20 Per Classe)</t>
+    <t>knn (Dist = cosine; NumNeigh = 51)</t>
   </si>
   <si>
-    <t>knn (Dist = cosine; NumNeigh = 51)</t>
+    <t>knn (Dist = cosine; NumNeigh = 31)</t>
+  </si>
+  <si>
+    <t>Estrazione Feature MobileNetV3 Degradato</t>
   </si>
 </sst>
 </file>
@@ -675,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +785,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>7</v>
@@ -815,10 +812,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>7</v>
@@ -845,13 +842,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
@@ -868,21 +865,49 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>33354</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
-      <c r="K7"/>
+      <c r="I7" s="3">
+        <v>0.24679000000000001</v>
+      </c>
+      <c r="K7">
+        <v>0.49291299999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>33355</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="14"/>
-      <c r="K8"/>
+      <c r="I8" s="3">
+        <v>0.18784390000000001</v>
+      </c>
+      <c r="K8">
+        <v>0.39986659000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\[Uni]Visual\FoodX-251_Classification\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3E284E-5230-4977-848C-DC1EEFEF403D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBFE636-0EE2-442C-B275-562983DB1538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>Type</t>
   </si>
@@ -114,16 +114,25 @@
     <t>7060 (Retrieval)</t>
   </si>
   <si>
-    <t>Nearest - No Outlier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centroid (k=10) - No Outlier </t>
-  </si>
-  <si>
     <t>9651(Retrieval)</t>
   </si>
   <si>
-    <t xml:space="preserve">Centroid (k=25) - No Outlier </t>
+    <t>9244(Retrieval)</t>
+  </si>
+  <si>
+    <t>Nearest</t>
+  </si>
+  <si>
+    <t>Centroid (k=10)</t>
+  </si>
+  <si>
+    <t>Centroid (k=25)</t>
+  </si>
+  <si>
+    <t>Centroid (k=25) - Outlier Removed</t>
+  </si>
+  <si>
+    <t>4575 (Small)</t>
   </si>
 </sst>
 </file>
@@ -305,56 +314,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -389,6 +368,10 @@
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -433,6 +416,34 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -484,29 +495,29 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A2F72929-E9D8-4586-BC51-4A26301F0B61}" name="Tabella3" displayName="Tabella3" ref="B2:N202" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="B2:N202" xr:uid="{A2F72929-E9D8-4586-BC51-4A26301F0B61}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{81D8900E-C3BA-4C64-83DB-2E4032A541DE}" name="Features" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{AB5DDC31-9CBD-49A7-8207-AC4CBAAFA59A}" name="Immagini Training" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{47E10AD6-70CD-4BDC-946A-F8FD7856E335}" name="Modello" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{F4ACCBD2-177E-4CEC-85AC-3F1313970137}" name="Note Type" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{DD55D490-729E-4084-BA09-6A1BFE62E335}" name="Estrazione Feature Train" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{BA11138A-2036-4967-B46E-839BD98F1B51}" name="Estrazione Feature Test" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{E4B8EB0D-4987-4E5D-BEF9-824BFE9AC79E}" name="Addestramento" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{E07EAE75-C223-43FA-9560-E1528C5270C6}" name="Classificazione" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{C1E38D92-21B0-4BDE-A3BD-D6A802F98B71}" name="Validation" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{B3D0F6E9-41AF-4CD5-AB5F-535081DE0B5D}" name="Top 5 Validation" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{3455BE8B-11CD-4D66-9A99-AE9452567D16}" name="Degraded" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{D2DD6351-1E20-4C5A-80DC-10FF14036732}" name="Top 5 Degraded" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{39574B1E-2974-4D97-8D30-F8FBF557B4AB}" name="Note Results" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{81D8900E-C3BA-4C64-83DB-2E4032A541DE}" name="Features" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{AB5DDC31-9CBD-49A7-8207-AC4CBAAFA59A}" name="Immagini Training" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{47E10AD6-70CD-4BDC-946A-F8FD7856E335}" name="Modello" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{F4ACCBD2-177E-4CEC-85AC-3F1313970137}" name="Note Type" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{DD55D490-729E-4084-BA09-6A1BFE62E335}" name="Estrazione Feature Train" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{BA11138A-2036-4967-B46E-839BD98F1B51}" name="Estrazione Feature Test" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{E4B8EB0D-4987-4E5D-BEF9-824BFE9AC79E}" name="Addestramento" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{E07EAE75-C223-43FA-9560-E1528C5270C6}" name="Classificazione" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{C1E38D92-21B0-4BDE-A3BD-D6A802F98B71}" name="Validation" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{B3D0F6E9-41AF-4CD5-AB5F-535081DE0B5D}" name="Top 5 Validation" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{3455BE8B-11CD-4D66-9A99-AE9452567D16}" name="Degraded" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{D2DD6351-1E20-4C5A-80DC-10FF14036732}" name="Top 5 Degraded" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{39574B1E-2974-4D97-8D30-F8FBF557B4AB}" name="Note Results" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1D3FD1B4-A608-4172-9203-2A16E664CD80}" name="Tabella4" displayName="Tabella4" ref="A2:A203" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1D3FD1B4-A608-4172-9203-2A16E664CD80}" name="Tabella4" displayName="Tabella4" ref="A2:A203" totalsRowShown="0" headerRowDxfId="4" dataDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="1">
   <autoFilter ref="A2:A203" xr:uid="{1D3FD1B4-A608-4172-9203-2A16E664CD80}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E3BBEAC2-419D-4477-B73F-06DF5933AF28}" name="id" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{E3BBEAC2-419D-4477-B73F-06DF5933AF28}" name="id" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -777,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,14 +797,14 @@
     <col min="1" max="1" width="11.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="46.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5546875" style="24" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="23.5546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="27.21875" style="1" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
@@ -818,9 +829,9 @@
       <c r="J1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -876,11 +887,11 @@
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="23">
+      <c r="F3" s="15">
         <v>119.824246</v>
       </c>
       <c r="G3" s="15">
@@ -893,7 +904,7 @@
       <c r="J3" s="14">
         <v>5.1692999999999999E-3</v>
       </c>
-      <c r="K3" s="23"/>
+      <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
@@ -908,11 +919,11 @@
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="23">
+      <c r="F4" s="15">
         <v>1189.63888</v>
       </c>
       <c r="G4" s="15">
@@ -925,7 +936,7 @@
       <c r="J4" s="14">
         <v>3.6684999999999999E-3</v>
       </c>
-      <c r="K4" s="23"/>
+      <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
@@ -940,11 +951,11 @@
       <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="23">
+      <c r="F5" s="15">
         <v>261.020126</v>
       </c>
       <c r="G5" s="15">
@@ -957,7 +968,7 @@
       <c r="J5" s="14">
         <v>3.5017999999999998E-3</v>
       </c>
-      <c r="K5" s="23"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
@@ -972,11 +983,11 @@
       <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="23">
+      <c r="F6" s="15">
         <v>120</v>
       </c>
       <c r="G6" s="15">
@@ -1004,13 +1015,13 @@
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="23">
+        <v>31</v>
+      </c>
+      <c r="F7" s="15">
         <v>120</v>
       </c>
       <c r="G7" s="15">
@@ -1034,43 +1045,43 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="23">
+      <c r="E8" s="23"/>
+      <c r="F8" s="24">
         <v>120</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="24">
         <v>350</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16">
+      <c r="H8" s="24"/>
+      <c r="I8" s="25">
         <v>3</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="26">
         <v>0.26088</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="24">
         <v>0.51583999999999997</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="24">
         <v>0.19325999999999999</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="24">
         <v>0.39935999999999999</v>
       </c>
-      <c r="N8" s="15"/>
+      <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1082,11 +1093,11 @@
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="23">
+      <c r="F9" s="15">
         <v>120</v>
       </c>
       <c r="G9" s="15">
@@ -1122,13 +1133,13 @@
       <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="23">
+        <v>32</v>
+      </c>
+      <c r="F10" s="15">
         <v>194</v>
       </c>
       <c r="G10" s="15">
@@ -1141,7 +1152,7 @@
       <c r="J10" s="14">
         <v>0.28649999999999998</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="15">
         <v>0.54330000000000001</v>
       </c>
       <c r="L10" s="15">
@@ -1162,13 +1173,13 @@
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="23">
+        <v>32</v>
+      </c>
+      <c r="F11" s="15">
         <v>194</v>
       </c>
       <c r="G11" s="15">
@@ -1183,7 +1194,7 @@
       <c r="J11" s="14">
         <v>0.1898</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="15">
         <v>0.37430000000000002</v>
       </c>
       <c r="L11" s="15">
@@ -1202,15 +1213,15 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="23">
+        <v>33</v>
+      </c>
+      <c r="F12" s="15">
         <v>290</v>
       </c>
       <c r="G12" s="15">
@@ -1223,7 +1234,7 @@
       <c r="J12" s="14">
         <v>0.28899999999999998</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="15">
         <v>0.54990000000000006</v>
       </c>
       <c r="L12" s="15">
@@ -1242,15 +1253,15 @@
         <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="23">
+        <v>33</v>
+      </c>
+      <c r="F13" s="15">
         <v>290</v>
       </c>
       <c r="G13" s="15">
@@ -1265,7 +1276,7 @@
       <c r="J13" s="14">
         <v>0.21110000000000001</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="15">
         <v>0.39689999999999998</v>
       </c>
       <c r="L13" s="15">
@@ -1280,30 +1291,80 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="15"/>
+      <c r="B14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="15">
+        <v>258</v>
+      </c>
+      <c r="G14" s="15">
+        <v>350</v>
+      </c>
       <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
+      <c r="I14" s="16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0.28760000000000002</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.54920000000000002</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0.20880000000000001</v>
+      </c>
+      <c r="M14" s="15">
+        <v>0.42370000000000002</v>
+      </c>
       <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="15"/>
+      <c r="B15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="15">
+        <v>117</v>
+      </c>
+      <c r="G15" s="15">
+        <v>350</v>
+      </c>
       <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
+      <c r="I15" s="16">
+        <v>5.7</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0.25919999999999999</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.51439999999999997</v>
+      </c>
+      <c r="L15" s="15">
+        <v>0.19170000000000001</v>
+      </c>
+      <c r="M15" s="15">
+        <v>0.39960000000000001</v>
+      </c>
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1311,12 +1372,12 @@
         <v>14</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="F16" s="23"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="16"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="23"/>
+      <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
@@ -1326,12 +1387,12 @@
         <v>15</v>
       </c>
       <c r="B17" s="12"/>
-      <c r="F17" s="23"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="16"/>
       <c r="J17" s="14"/>
-      <c r="K17" s="23"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
@@ -1341,12 +1402,12 @@
         <v>16</v>
       </c>
       <c r="B18" s="12"/>
-      <c r="F18" s="23"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="16"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="23"/>
+      <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
@@ -1356,12 +1417,12 @@
         <v>17</v>
       </c>
       <c r="B19" s="12"/>
-      <c r="F19" s="23"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="16"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="23"/>
+      <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
@@ -1371,12 +1432,12 @@
         <v>18</v>
       </c>
       <c r="B20" s="12"/>
-      <c r="F20" s="23"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="16"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="23"/>
+      <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
@@ -1387,12 +1448,12 @@
         <v>19</v>
       </c>
       <c r="B21" s="12"/>
-      <c r="F21" s="23"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="16"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="23"/>
+      <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
@@ -1402,12 +1463,12 @@
         <v>20</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="F22" s="23"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="16"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="23"/>
+      <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
@@ -1417,12 +1478,12 @@
         <v>21</v>
       </c>
       <c r="B23" s="12"/>
-      <c r="F23" s="23"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="16"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="23"/>
+      <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
@@ -1432,12 +1493,12 @@
         <v>22</v>
       </c>
       <c r="B24" s="12"/>
-      <c r="F24" s="23"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="16"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="23"/>
+      <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
@@ -1447,12 +1508,12 @@
         <v>23</v>
       </c>
       <c r="B25" s="12"/>
-      <c r="F25" s="23"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="16"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="23"/>
+      <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
@@ -1462,12 +1523,12 @@
         <v>24</v>
       </c>
       <c r="B26" s="12"/>
-      <c r="F26" s="23"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="16"/>
       <c r="J26" s="14"/>
-      <c r="K26" s="23"/>
+      <c r="K26" s="15"/>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
@@ -1477,12 +1538,12 @@
         <v>25</v>
       </c>
       <c r="B27" s="12"/>
-      <c r="F27" s="23"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="16"/>
       <c r="J27" s="14"/>
-      <c r="K27" s="23"/>
+      <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
@@ -1492,12 +1553,12 @@
         <v>26</v>
       </c>
       <c r="B28" s="12"/>
-      <c r="F28" s="23"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="16"/>
       <c r="J28" s="14"/>
-      <c r="K28" s="23"/>
+      <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
@@ -1507,12 +1568,12 @@
         <v>27</v>
       </c>
       <c r="B29" s="12"/>
-      <c r="F29" s="23"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="16"/>
       <c r="J29" s="14"/>
-      <c r="K29" s="23"/>
+      <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
@@ -1522,12 +1583,12 @@
         <v>28</v>
       </c>
       <c r="B30" s="12"/>
-      <c r="F30" s="23"/>
+      <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="16"/>
       <c r="J30" s="14"/>
-      <c r="K30" s="23"/>
+      <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
@@ -1537,12 +1598,12 @@
         <v>29</v>
       </c>
       <c r="B31" s="12"/>
-      <c r="F31" s="23"/>
+      <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" s="16"/>
       <c r="J31" s="14"/>
-      <c r="K31" s="23"/>
+      <c r="K31" s="15"/>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
@@ -1552,12 +1613,12 @@
         <v>30</v>
       </c>
       <c r="B32" s="12"/>
-      <c r="F32" s="23"/>
+      <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
       <c r="I32" s="16"/>
       <c r="J32" s="14"/>
-      <c r="K32" s="23"/>
+      <c r="K32" s="15"/>
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
       <c r="N32" s="15"/>
@@ -1567,12 +1628,12 @@
         <v>31</v>
       </c>
       <c r="B33" s="12"/>
-      <c r="F33" s="23"/>
+      <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" s="16"/>
       <c r="J33" s="14"/>
-      <c r="K33" s="23"/>
+      <c r="K33" s="15"/>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
       <c r="N33" s="15"/>
@@ -1582,12 +1643,12 @@
         <v>32</v>
       </c>
       <c r="B34" s="12"/>
-      <c r="F34" s="23"/>
+      <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="I34" s="16"/>
       <c r="J34" s="14"/>
-      <c r="K34" s="23"/>
+      <c r="K34" s="15"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
       <c r="N34" s="15"/>
@@ -1597,12 +1658,12 @@
         <v>33</v>
       </c>
       <c r="B35" s="12"/>
-      <c r="F35" s="23"/>
+      <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="I35" s="16"/>
       <c r="J35" s="14"/>
-      <c r="K35" s="23"/>
+      <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
       <c r="N35" s="15"/>
@@ -1612,12 +1673,12 @@
         <v>34</v>
       </c>
       <c r="B36" s="12"/>
-      <c r="F36" s="23"/>
+      <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
       <c r="I36" s="16"/>
       <c r="J36" s="14"/>
-      <c r="K36" s="23"/>
+      <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
       <c r="N36" s="15"/>
@@ -1627,12 +1688,12 @@
         <v>35</v>
       </c>
       <c r="B37" s="12"/>
-      <c r="F37" s="23"/>
+      <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
       <c r="I37" s="16"/>
       <c r="J37" s="14"/>
-      <c r="K37" s="23"/>
+      <c r="K37" s="15"/>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
       <c r="N37" s="15"/>
@@ -1642,12 +1703,12 @@
         <v>36</v>
       </c>
       <c r="B38" s="12"/>
-      <c r="F38" s="23"/>
+      <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
       <c r="I38" s="16"/>
       <c r="J38" s="14"/>
-      <c r="K38" s="23"/>
+      <c r="K38" s="15"/>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
       <c r="N38" s="15"/>
@@ -1657,12 +1718,12 @@
         <v>37</v>
       </c>
       <c r="B39" s="12"/>
-      <c r="F39" s="23"/>
+      <c r="F39" s="15"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
       <c r="I39" s="16"/>
       <c r="J39" s="14"/>
-      <c r="K39" s="23"/>
+      <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
       <c r="N39" s="15"/>
@@ -1672,12 +1733,12 @@
         <v>38</v>
       </c>
       <c r="B40" s="12"/>
-      <c r="F40" s="23"/>
+      <c r="F40" s="15"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
       <c r="I40" s="16"/>
       <c r="J40" s="14"/>
-      <c r="K40" s="23"/>
+      <c r="K40" s="15"/>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
       <c r="N40" s="15"/>
@@ -1687,12 +1748,12 @@
         <v>39</v>
       </c>
       <c r="B41" s="12"/>
-      <c r="F41" s="23"/>
+      <c r="F41" s="15"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
       <c r="I41" s="16"/>
       <c r="J41" s="14"/>
-      <c r="K41" s="23"/>
+      <c r="K41" s="15"/>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
       <c r="N41" s="15"/>
@@ -1702,12 +1763,12 @@
         <v>40</v>
       </c>
       <c r="B42" s="12"/>
-      <c r="F42" s="23"/>
+      <c r="F42" s="15"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
       <c r="I42" s="16"/>
       <c r="J42" s="14"/>
-      <c r="K42" s="23"/>
+      <c r="K42" s="15"/>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
       <c r="N42" s="15"/>
@@ -1717,12 +1778,12 @@
         <v>41</v>
       </c>
       <c r="B43" s="12"/>
-      <c r="F43" s="23"/>
+      <c r="F43" s="15"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
       <c r="I43" s="16"/>
       <c r="J43" s="14"/>
-      <c r="K43" s="23"/>
+      <c r="K43" s="15"/>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
@@ -1732,12 +1793,12 @@
         <v>42</v>
       </c>
       <c r="B44" s="12"/>
-      <c r="F44" s="23"/>
+      <c r="F44" s="15"/>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
       <c r="I44" s="16"/>
       <c r="J44" s="14"/>
-      <c r="K44" s="23"/>
+      <c r="K44" s="15"/>
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
       <c r="N44" s="15"/>
@@ -1747,12 +1808,12 @@
         <v>43</v>
       </c>
       <c r="B45" s="12"/>
-      <c r="F45" s="23"/>
+      <c r="F45" s="15"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
       <c r="I45" s="16"/>
       <c r="J45" s="14"/>
-      <c r="K45" s="23"/>
+      <c r="K45" s="15"/>
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
       <c r="N45" s="15"/>
@@ -1762,12 +1823,12 @@
         <v>44</v>
       </c>
       <c r="B46" s="12"/>
-      <c r="F46" s="23"/>
+      <c r="F46" s="15"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="I46" s="16"/>
       <c r="J46" s="14"/>
-      <c r="K46" s="23"/>
+      <c r="K46" s="15"/>
       <c r="L46" s="15"/>
       <c r="M46" s="15"/>
       <c r="N46" s="15"/>
@@ -1777,12 +1838,12 @@
         <v>45</v>
       </c>
       <c r="B47" s="12"/>
-      <c r="F47" s="23"/>
+      <c r="F47" s="15"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
       <c r="I47" s="16"/>
       <c r="J47" s="14"/>
-      <c r="K47" s="23"/>
+      <c r="K47" s="15"/>
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
@@ -1792,12 +1853,12 @@
         <v>46</v>
       </c>
       <c r="B48" s="12"/>
-      <c r="F48" s="23"/>
+      <c r="F48" s="15"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="16"/>
       <c r="J48" s="14"/>
-      <c r="K48" s="23"/>
+      <c r="K48" s="15"/>
       <c r="L48" s="15"/>
       <c r="M48" s="15"/>
       <c r="N48" s="15"/>
@@ -1807,12 +1868,12 @@
         <v>47</v>
       </c>
       <c r="B49" s="12"/>
-      <c r="F49" s="23"/>
+      <c r="F49" s="15"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
       <c r="I49" s="16"/>
       <c r="J49" s="14"/>
-      <c r="K49" s="23"/>
+      <c r="K49" s="15"/>
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
       <c r="N49" s="15"/>
@@ -1822,12 +1883,12 @@
         <v>48</v>
       </c>
       <c r="B50" s="12"/>
-      <c r="F50" s="23"/>
+      <c r="F50" s="15"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="16"/>
       <c r="J50" s="14"/>
-      <c r="K50" s="23"/>
+      <c r="K50" s="15"/>
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
       <c r="N50" s="15"/>
@@ -1837,12 +1898,12 @@
         <v>49</v>
       </c>
       <c r="B51" s="12"/>
-      <c r="F51" s="23"/>
+      <c r="F51" s="15"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="16"/>
       <c r="J51" s="14"/>
-      <c r="K51" s="23"/>
+      <c r="K51" s="15"/>
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
       <c r="N51" s="15"/>
@@ -1852,12 +1913,12 @@
         <v>50</v>
       </c>
       <c r="B52" s="12"/>
-      <c r="F52" s="23"/>
+      <c r="F52" s="15"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
       <c r="I52" s="16"/>
       <c r="J52" s="14"/>
-      <c r="K52" s="23"/>
+      <c r="K52" s="15"/>
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
       <c r="N52" s="15"/>
@@ -1867,12 +1928,12 @@
         <v>51</v>
       </c>
       <c r="B53" s="12"/>
-      <c r="F53" s="23"/>
+      <c r="F53" s="15"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
       <c r="I53" s="16"/>
       <c r="J53" s="14"/>
-      <c r="K53" s="23"/>
+      <c r="K53" s="15"/>
       <c r="L53" s="15"/>
       <c r="M53" s="15"/>
       <c r="N53" s="15"/>
@@ -1882,12 +1943,12 @@
         <v>52</v>
       </c>
       <c r="B54" s="12"/>
-      <c r="F54" s="23"/>
+      <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
       <c r="I54" s="16"/>
       <c r="J54" s="14"/>
-      <c r="K54" s="23"/>
+      <c r="K54" s="15"/>
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
       <c r="N54" s="15"/>
@@ -1897,12 +1958,12 @@
         <v>53</v>
       </c>
       <c r="B55" s="12"/>
-      <c r="F55" s="23"/>
+      <c r="F55" s="15"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
       <c r="I55" s="16"/>
       <c r="J55" s="14"/>
-      <c r="K55" s="23"/>
+      <c r="K55" s="15"/>
       <c r="L55" s="15"/>
       <c r="M55" s="15"/>
       <c r="N55" s="15"/>
@@ -1912,12 +1973,12 @@
         <v>54</v>
       </c>
       <c r="B56" s="12"/>
-      <c r="F56" s="23"/>
+      <c r="F56" s="15"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="I56" s="16"/>
       <c r="J56" s="14"/>
-      <c r="K56" s="23"/>
+      <c r="K56" s="15"/>
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
       <c r="N56" s="15"/>
@@ -1927,12 +1988,12 @@
         <v>55</v>
       </c>
       <c r="B57" s="12"/>
-      <c r="F57" s="23"/>
+      <c r="F57" s="15"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="I57" s="16"/>
       <c r="J57" s="14"/>
-      <c r="K57" s="23"/>
+      <c r="K57" s="15"/>
       <c r="L57" s="15"/>
       <c r="M57" s="15"/>
       <c r="N57" s="15"/>
@@ -1942,12 +2003,12 @@
         <v>56</v>
       </c>
       <c r="B58" s="12"/>
-      <c r="F58" s="23"/>
+      <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
       <c r="I58" s="16"/>
       <c r="J58" s="14"/>
-      <c r="K58" s="23"/>
+      <c r="K58" s="15"/>
       <c r="L58" s="15"/>
       <c r="M58" s="15"/>
       <c r="N58" s="15"/>
@@ -1957,12 +2018,12 @@
         <v>57</v>
       </c>
       <c r="B59" s="12"/>
-      <c r="F59" s="23"/>
+      <c r="F59" s="15"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
       <c r="I59" s="16"/>
       <c r="J59" s="14"/>
-      <c r="K59" s="23"/>
+      <c r="K59" s="15"/>
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
       <c r="N59" s="15"/>
@@ -1972,12 +2033,12 @@
         <v>58</v>
       </c>
       <c r="B60" s="12"/>
-      <c r="F60" s="23"/>
+      <c r="F60" s="15"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
       <c r="I60" s="16"/>
       <c r="J60" s="14"/>
-      <c r="K60" s="23"/>
+      <c r="K60" s="15"/>
       <c r="L60" s="15"/>
       <c r="M60" s="15"/>
       <c r="N60" s="15"/>
@@ -1987,12 +2048,12 @@
         <v>59</v>
       </c>
       <c r="B61" s="12"/>
-      <c r="F61" s="23"/>
+      <c r="F61" s="15"/>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
       <c r="I61" s="16"/>
       <c r="J61" s="14"/>
-      <c r="K61" s="23"/>
+      <c r="K61" s="15"/>
       <c r="L61" s="15"/>
       <c r="M61" s="15"/>
       <c r="N61" s="15"/>
@@ -2002,12 +2063,12 @@
         <v>60</v>
       </c>
       <c r="B62" s="12"/>
-      <c r="F62" s="23"/>
+      <c r="F62" s="15"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
       <c r="I62" s="16"/>
       <c r="J62" s="14"/>
-      <c r="K62" s="23"/>
+      <c r="K62" s="15"/>
       <c r="L62" s="15"/>
       <c r="M62" s="15"/>
       <c r="N62" s="15"/>
@@ -2017,12 +2078,12 @@
         <v>61</v>
       </c>
       <c r="B63" s="12"/>
-      <c r="F63" s="23"/>
+      <c r="F63" s="15"/>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
       <c r="I63" s="16"/>
       <c r="J63" s="14"/>
-      <c r="K63" s="23"/>
+      <c r="K63" s="15"/>
       <c r="L63" s="15"/>
       <c r="M63" s="15"/>
       <c r="N63" s="15"/>
@@ -2032,12 +2093,12 @@
         <v>62</v>
       </c>
       <c r="B64" s="12"/>
-      <c r="F64" s="23"/>
+      <c r="F64" s="15"/>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
       <c r="I64" s="16"/>
       <c r="J64" s="14"/>
-      <c r="K64" s="23"/>
+      <c r="K64" s="15"/>
       <c r="L64" s="15"/>
       <c r="M64" s="15"/>
       <c r="N64" s="15"/>
@@ -2047,12 +2108,12 @@
         <v>63</v>
       </c>
       <c r="B65" s="12"/>
-      <c r="F65" s="23"/>
+      <c r="F65" s="15"/>
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
       <c r="I65" s="16"/>
       <c r="J65" s="14"/>
-      <c r="K65" s="23"/>
+      <c r="K65" s="15"/>
       <c r="L65" s="15"/>
       <c r="M65" s="15"/>
       <c r="N65" s="15"/>
@@ -2062,12 +2123,12 @@
         <v>64</v>
       </c>
       <c r="B66" s="12"/>
-      <c r="F66" s="23"/>
+      <c r="F66" s="15"/>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
       <c r="I66" s="16"/>
       <c r="J66" s="14"/>
-      <c r="K66" s="23"/>
+      <c r="K66" s="15"/>
       <c r="L66" s="15"/>
       <c r="M66" s="15"/>
       <c r="N66" s="15"/>
@@ -2077,12 +2138,12 @@
         <v>65</v>
       </c>
       <c r="B67" s="12"/>
-      <c r="F67" s="23"/>
+      <c r="F67" s="15"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
       <c r="I67" s="16"/>
       <c r="J67" s="14"/>
-      <c r="K67" s="23"/>
+      <c r="K67" s="15"/>
       <c r="L67" s="15"/>
       <c r="M67" s="15"/>
       <c r="N67" s="15"/>
@@ -2092,12 +2153,12 @@
         <v>66</v>
       </c>
       <c r="B68" s="12"/>
-      <c r="F68" s="23"/>
+      <c r="F68" s="15"/>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
       <c r="I68" s="16"/>
       <c r="J68" s="14"/>
-      <c r="K68" s="23"/>
+      <c r="K68" s="15"/>
       <c r="L68" s="15"/>
       <c r="M68" s="15"/>
       <c r="N68" s="15"/>
@@ -2107,12 +2168,12 @@
         <v>67</v>
       </c>
       <c r="B69" s="12"/>
-      <c r="F69" s="23"/>
+      <c r="F69" s="15"/>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
       <c r="I69" s="16"/>
       <c r="J69" s="14"/>
-      <c r="K69" s="23"/>
+      <c r="K69" s="15"/>
       <c r="L69" s="15"/>
       <c r="M69" s="15"/>
       <c r="N69" s="15"/>
@@ -2122,12 +2183,12 @@
         <v>68</v>
       </c>
       <c r="B70" s="12"/>
-      <c r="F70" s="23"/>
+      <c r="F70" s="15"/>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
       <c r="I70" s="16"/>
       <c r="J70" s="14"/>
-      <c r="K70" s="23"/>
+      <c r="K70" s="15"/>
       <c r="L70" s="15"/>
       <c r="M70" s="15"/>
       <c r="N70" s="15"/>
@@ -2137,12 +2198,12 @@
         <v>69</v>
       </c>
       <c r="B71" s="12"/>
-      <c r="F71" s="23"/>
+      <c r="F71" s="15"/>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
       <c r="I71" s="16"/>
       <c r="J71" s="14"/>
-      <c r="K71" s="23"/>
+      <c r="K71" s="15"/>
       <c r="L71" s="15"/>
       <c r="M71" s="15"/>
       <c r="N71" s="15"/>
@@ -2152,12 +2213,12 @@
         <v>70</v>
       </c>
       <c r="B72" s="12"/>
-      <c r="F72" s="23"/>
+      <c r="F72" s="15"/>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
       <c r="I72" s="16"/>
       <c r="J72" s="14"/>
-      <c r="K72" s="23"/>
+      <c r="K72" s="15"/>
       <c r="L72" s="15"/>
       <c r="M72" s="15"/>
       <c r="N72" s="15"/>
@@ -2167,12 +2228,12 @@
         <v>71</v>
       </c>
       <c r="B73" s="12"/>
-      <c r="F73" s="23"/>
+      <c r="F73" s="15"/>
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
       <c r="I73" s="16"/>
       <c r="J73" s="14"/>
-      <c r="K73" s="23"/>
+      <c r="K73" s="15"/>
       <c r="L73" s="15"/>
       <c r="M73" s="15"/>
       <c r="N73" s="15"/>
@@ -2182,12 +2243,12 @@
         <v>72</v>
       </c>
       <c r="B74" s="12"/>
-      <c r="F74" s="23"/>
+      <c r="F74" s="15"/>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
       <c r="I74" s="16"/>
       <c r="J74" s="14"/>
-      <c r="K74" s="23"/>
+      <c r="K74" s="15"/>
       <c r="L74" s="15"/>
       <c r="M74" s="15"/>
       <c r="N74" s="15"/>
@@ -2197,12 +2258,12 @@
         <v>73</v>
       </c>
       <c r="B75" s="12"/>
-      <c r="F75" s="23"/>
+      <c r="F75" s="15"/>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
       <c r="I75" s="16"/>
       <c r="J75" s="14"/>
-      <c r="K75" s="23"/>
+      <c r="K75" s="15"/>
       <c r="L75" s="15"/>
       <c r="M75" s="15"/>
       <c r="N75" s="15"/>
@@ -2212,12 +2273,12 @@
         <v>74</v>
       </c>
       <c r="B76" s="12"/>
-      <c r="F76" s="23"/>
+      <c r="F76" s="15"/>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
       <c r="I76" s="16"/>
       <c r="J76" s="14"/>
-      <c r="K76" s="23"/>
+      <c r="K76" s="15"/>
       <c r="L76" s="15"/>
       <c r="M76" s="15"/>
       <c r="N76" s="15"/>
@@ -2227,12 +2288,12 @@
         <v>75</v>
       </c>
       <c r="B77" s="12"/>
-      <c r="F77" s="23"/>
+      <c r="F77" s="15"/>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
       <c r="I77" s="16"/>
       <c r="J77" s="14"/>
-      <c r="K77" s="23"/>
+      <c r="K77" s="15"/>
       <c r="L77" s="15"/>
       <c r="M77" s="15"/>
       <c r="N77" s="15"/>
@@ -2242,12 +2303,12 @@
         <v>76</v>
       </c>
       <c r="B78" s="12"/>
-      <c r="F78" s="23"/>
+      <c r="F78" s="15"/>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
       <c r="I78" s="16"/>
       <c r="J78" s="14"/>
-      <c r="K78" s="23"/>
+      <c r="K78" s="15"/>
       <c r="L78" s="15"/>
       <c r="M78" s="15"/>
       <c r="N78" s="15"/>
@@ -2257,12 +2318,12 @@
         <v>77</v>
       </c>
       <c r="B79" s="12"/>
-      <c r="F79" s="23"/>
+      <c r="F79" s="15"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
       <c r="I79" s="16"/>
       <c r="J79" s="14"/>
-      <c r="K79" s="23"/>
+      <c r="K79" s="15"/>
       <c r="L79" s="15"/>
       <c r="M79" s="15"/>
       <c r="N79" s="15"/>
@@ -2272,12 +2333,12 @@
         <v>78</v>
       </c>
       <c r="B80" s="12"/>
-      <c r="F80" s="23"/>
+      <c r="F80" s="15"/>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
       <c r="I80" s="16"/>
       <c r="J80" s="14"/>
-      <c r="K80" s="23"/>
+      <c r="K80" s="15"/>
       <c r="L80" s="15"/>
       <c r="M80" s="15"/>
       <c r="N80" s="15"/>
@@ -2287,12 +2348,12 @@
         <v>79</v>
       </c>
       <c r="B81" s="12"/>
-      <c r="F81" s="23"/>
+      <c r="F81" s="15"/>
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
       <c r="I81" s="16"/>
       <c r="J81" s="14"/>
-      <c r="K81" s="23"/>
+      <c r="K81" s="15"/>
       <c r="L81" s="15"/>
       <c r="M81" s="15"/>
       <c r="N81" s="15"/>
@@ -2302,12 +2363,12 @@
         <v>80</v>
       </c>
       <c r="B82" s="12"/>
-      <c r="F82" s="23"/>
+      <c r="F82" s="15"/>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
       <c r="I82" s="16"/>
       <c r="J82" s="14"/>
-      <c r="K82" s="23"/>
+      <c r="K82" s="15"/>
       <c r="L82" s="15"/>
       <c r="M82" s="15"/>
       <c r="N82" s="15"/>
@@ -2317,12 +2378,12 @@
         <v>81</v>
       </c>
       <c r="B83" s="12"/>
-      <c r="F83" s="23"/>
+      <c r="F83" s="15"/>
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
       <c r="I83" s="16"/>
       <c r="J83" s="14"/>
-      <c r="K83" s="23"/>
+      <c r="K83" s="15"/>
       <c r="L83" s="15"/>
       <c r="M83" s="15"/>
       <c r="N83" s="15"/>
@@ -2332,12 +2393,12 @@
         <v>82</v>
       </c>
       <c r="B84" s="12"/>
-      <c r="F84" s="23"/>
+      <c r="F84" s="15"/>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
       <c r="I84" s="16"/>
       <c r="J84" s="14"/>
-      <c r="K84" s="23"/>
+      <c r="K84" s="15"/>
       <c r="L84" s="15"/>
       <c r="M84" s="15"/>
       <c r="N84" s="15"/>
@@ -2347,12 +2408,12 @@
         <v>83</v>
       </c>
       <c r="B85" s="12"/>
-      <c r="F85" s="23"/>
+      <c r="F85" s="15"/>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
       <c r="I85" s="16"/>
       <c r="J85" s="14"/>
-      <c r="K85" s="23"/>
+      <c r="K85" s="15"/>
       <c r="L85" s="15"/>
       <c r="M85" s="15"/>
       <c r="N85" s="15"/>
@@ -2362,12 +2423,12 @@
         <v>84</v>
       </c>
       <c r="B86" s="12"/>
-      <c r="F86" s="23"/>
+      <c r="F86" s="15"/>
       <c r="G86" s="15"/>
       <c r="H86" s="15"/>
       <c r="I86" s="16"/>
       <c r="J86" s="14"/>
-      <c r="K86" s="23"/>
+      <c r="K86" s="15"/>
       <c r="L86" s="15"/>
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
@@ -2377,12 +2438,12 @@
         <v>85</v>
       </c>
       <c r="B87" s="12"/>
-      <c r="F87" s="23"/>
+      <c r="F87" s="15"/>
       <c r="G87" s="15"/>
       <c r="H87" s="15"/>
       <c r="I87" s="16"/>
       <c r="J87" s="14"/>
-      <c r="K87" s="23"/>
+      <c r="K87" s="15"/>
       <c r="L87" s="15"/>
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
@@ -2392,12 +2453,12 @@
         <v>86</v>
       </c>
       <c r="B88" s="12"/>
-      <c r="F88" s="23"/>
+      <c r="F88" s="15"/>
       <c r="G88" s="15"/>
       <c r="H88" s="15"/>
       <c r="I88" s="16"/>
       <c r="J88" s="14"/>
-      <c r="K88" s="23"/>
+      <c r="K88" s="15"/>
       <c r="L88" s="15"/>
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
@@ -2407,12 +2468,12 @@
         <v>87</v>
       </c>
       <c r="B89" s="12"/>
-      <c r="F89" s="23"/>
+      <c r="F89" s="15"/>
       <c r="G89" s="15"/>
       <c r="H89" s="15"/>
       <c r="I89" s="16"/>
       <c r="J89" s="14"/>
-      <c r="K89" s="23"/>
+      <c r="K89" s="15"/>
       <c r="L89" s="15"/>
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
@@ -2422,12 +2483,12 @@
         <v>88</v>
       </c>
       <c r="B90" s="12"/>
-      <c r="F90" s="23"/>
+      <c r="F90" s="15"/>
       <c r="G90" s="15"/>
       <c r="H90" s="15"/>
       <c r="I90" s="16"/>
       <c r="J90" s="14"/>
-      <c r="K90" s="23"/>
+      <c r="K90" s="15"/>
       <c r="L90" s="15"/>
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
@@ -2437,12 +2498,12 @@
         <v>89</v>
       </c>
       <c r="B91" s="12"/>
-      <c r="F91" s="23"/>
+      <c r="F91" s="15"/>
       <c r="G91" s="15"/>
       <c r="H91" s="15"/>
       <c r="I91" s="16"/>
       <c r="J91" s="14"/>
-      <c r="K91" s="23"/>
+      <c r="K91" s="15"/>
       <c r="L91" s="15"/>
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
@@ -2452,12 +2513,12 @@
         <v>90</v>
       </c>
       <c r="B92" s="12"/>
-      <c r="F92" s="23"/>
+      <c r="F92" s="15"/>
       <c r="G92" s="15"/>
       <c r="H92" s="15"/>
       <c r="I92" s="16"/>
       <c r="J92" s="14"/>
-      <c r="K92" s="23"/>
+      <c r="K92" s="15"/>
       <c r="L92" s="15"/>
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
@@ -2467,12 +2528,12 @@
         <v>91</v>
       </c>
       <c r="B93" s="12"/>
-      <c r="F93" s="23"/>
+      <c r="F93" s="15"/>
       <c r="G93" s="15"/>
       <c r="H93" s="15"/>
       <c r="I93" s="16"/>
       <c r="J93" s="14"/>
-      <c r="K93" s="23"/>
+      <c r="K93" s="15"/>
       <c r="L93" s="15"/>
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
@@ -2482,12 +2543,12 @@
         <v>92</v>
       </c>
       <c r="B94" s="12"/>
-      <c r="F94" s="23"/>
+      <c r="F94" s="15"/>
       <c r="G94" s="15"/>
       <c r="H94" s="15"/>
       <c r="I94" s="16"/>
       <c r="J94" s="14"/>
-      <c r="K94" s="23"/>
+      <c r="K94" s="15"/>
       <c r="L94" s="15"/>
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
@@ -2497,12 +2558,12 @@
         <v>93</v>
       </c>
       <c r="B95" s="12"/>
-      <c r="F95" s="23"/>
+      <c r="F95" s="15"/>
       <c r="G95" s="15"/>
       <c r="H95" s="15"/>
       <c r="I95" s="16"/>
       <c r="J95" s="14"/>
-      <c r="K95" s="23"/>
+      <c r="K95" s="15"/>
       <c r="L95" s="15"/>
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
@@ -2512,12 +2573,12 @@
         <v>94</v>
       </c>
       <c r="B96" s="12"/>
-      <c r="F96" s="23"/>
+      <c r="F96" s="15"/>
       <c r="G96" s="15"/>
       <c r="H96" s="15"/>
       <c r="I96" s="16"/>
       <c r="J96" s="14"/>
-      <c r="K96" s="23"/>
+      <c r="K96" s="15"/>
       <c r="L96" s="15"/>
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
@@ -2527,12 +2588,12 @@
         <v>95</v>
       </c>
       <c r="B97" s="12"/>
-      <c r="F97" s="23"/>
+      <c r="F97" s="15"/>
       <c r="G97" s="15"/>
       <c r="H97" s="15"/>
       <c r="I97" s="16"/>
       <c r="J97" s="14"/>
-      <c r="K97" s="23"/>
+      <c r="K97" s="15"/>
       <c r="L97" s="15"/>
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
@@ -2542,12 +2603,12 @@
         <v>96</v>
       </c>
       <c r="B98" s="12"/>
-      <c r="F98" s="23"/>
+      <c r="F98" s="15"/>
       <c r="G98" s="15"/>
       <c r="H98" s="15"/>
       <c r="I98" s="16"/>
       <c r="J98" s="14"/>
-      <c r="K98" s="23"/>
+      <c r="K98" s="15"/>
       <c r="L98" s="15"/>
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
@@ -2557,12 +2618,12 @@
         <v>97</v>
       </c>
       <c r="B99" s="12"/>
-      <c r="F99" s="23"/>
+      <c r="F99" s="15"/>
       <c r="G99" s="15"/>
       <c r="H99" s="15"/>
       <c r="I99" s="16"/>
       <c r="J99" s="14"/>
-      <c r="K99" s="23"/>
+      <c r="K99" s="15"/>
       <c r="L99" s="15"/>
       <c r="M99" s="15"/>
       <c r="N99" s="15"/>
@@ -2572,12 +2633,12 @@
         <v>98</v>
       </c>
       <c r="B100" s="12"/>
-      <c r="F100" s="23"/>
+      <c r="F100" s="15"/>
       <c r="G100" s="15"/>
       <c r="H100" s="15"/>
       <c r="I100" s="16"/>
       <c r="J100" s="14"/>
-      <c r="K100" s="23"/>
+      <c r="K100" s="15"/>
       <c r="L100" s="15"/>
       <c r="M100" s="15"/>
       <c r="N100" s="15"/>
@@ -2587,12 +2648,12 @@
         <v>99</v>
       </c>
       <c r="B101" s="12"/>
-      <c r="F101" s="23"/>
+      <c r="F101" s="15"/>
       <c r="G101" s="15"/>
       <c r="H101" s="15"/>
       <c r="I101" s="16"/>
       <c r="J101" s="14"/>
-      <c r="K101" s="23"/>
+      <c r="K101" s="15"/>
       <c r="L101" s="15"/>
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
@@ -2602,12 +2663,12 @@
         <v>100</v>
       </c>
       <c r="B102" s="12"/>
-      <c r="F102" s="23"/>
+      <c r="F102" s="15"/>
       <c r="G102" s="15"/>
       <c r="H102" s="15"/>
       <c r="I102" s="16"/>
       <c r="J102" s="14"/>
-      <c r="K102" s="23"/>
+      <c r="K102" s="15"/>
       <c r="L102" s="15"/>
       <c r="M102" s="15"/>
       <c r="N102" s="15"/>
@@ -2617,12 +2678,12 @@
         <v>101</v>
       </c>
       <c r="B103" s="12"/>
-      <c r="F103" s="23"/>
+      <c r="F103" s="15"/>
       <c r="G103" s="15"/>
       <c r="H103" s="15"/>
       <c r="I103" s="16"/>
       <c r="J103" s="14"/>
-      <c r="K103" s="23"/>
+      <c r="K103" s="15"/>
       <c r="L103" s="15"/>
       <c r="M103" s="15"/>
       <c r="N103" s="15"/>
@@ -2632,12 +2693,12 @@
         <v>102</v>
       </c>
       <c r="B104" s="12"/>
-      <c r="F104" s="23"/>
+      <c r="F104" s="15"/>
       <c r="G104" s="15"/>
       <c r="H104" s="15"/>
       <c r="I104" s="16"/>
       <c r="J104" s="14"/>
-      <c r="K104" s="23"/>
+      <c r="K104" s="15"/>
       <c r="L104" s="15"/>
       <c r="M104" s="15"/>
       <c r="N104" s="15"/>
@@ -2647,12 +2708,12 @@
         <v>103</v>
       </c>
       <c r="B105" s="12"/>
-      <c r="F105" s="23"/>
+      <c r="F105" s="15"/>
       <c r="G105" s="15"/>
       <c r="H105" s="15"/>
       <c r="I105" s="16"/>
       <c r="J105" s="14"/>
-      <c r="K105" s="23"/>
+      <c r="K105" s="15"/>
       <c r="L105" s="15"/>
       <c r="M105" s="15"/>
       <c r="N105" s="15"/>
@@ -2662,12 +2723,12 @@
         <v>104</v>
       </c>
       <c r="B106" s="12"/>
-      <c r="F106" s="23"/>
+      <c r="F106" s="15"/>
       <c r="G106" s="15"/>
       <c r="H106" s="15"/>
       <c r="I106" s="16"/>
       <c r="J106" s="14"/>
-      <c r="K106" s="23"/>
+      <c r="K106" s="15"/>
       <c r="L106" s="15"/>
       <c r="M106" s="15"/>
       <c r="N106" s="15"/>
@@ -2677,12 +2738,12 @@
         <v>105</v>
       </c>
       <c r="B107" s="12"/>
-      <c r="F107" s="23"/>
+      <c r="F107" s="15"/>
       <c r="G107" s="15"/>
       <c r="H107" s="15"/>
       <c r="I107" s="16"/>
       <c r="J107" s="14"/>
-      <c r="K107" s="23"/>
+      <c r="K107" s="15"/>
       <c r="L107" s="15"/>
       <c r="M107" s="15"/>
       <c r="N107" s="15"/>
@@ -2692,12 +2753,12 @@
         <v>106</v>
       </c>
       <c r="B108" s="12"/>
-      <c r="F108" s="23"/>
+      <c r="F108" s="15"/>
       <c r="G108" s="15"/>
       <c r="H108" s="15"/>
       <c r="I108" s="16"/>
       <c r="J108" s="14"/>
-      <c r="K108" s="23"/>
+      <c r="K108" s="15"/>
       <c r="L108" s="15"/>
       <c r="M108" s="15"/>
       <c r="N108" s="15"/>
@@ -2707,12 +2768,12 @@
         <v>107</v>
       </c>
       <c r="B109" s="12"/>
-      <c r="F109" s="23"/>
+      <c r="F109" s="15"/>
       <c r="G109" s="15"/>
       <c r="H109" s="15"/>
       <c r="I109" s="16"/>
       <c r="J109" s="14"/>
-      <c r="K109" s="23"/>
+      <c r="K109" s="15"/>
       <c r="L109" s="15"/>
       <c r="M109" s="15"/>
       <c r="N109" s="15"/>
@@ -2722,12 +2783,12 @@
         <v>108</v>
       </c>
       <c r="B110" s="12"/>
-      <c r="F110" s="23"/>
+      <c r="F110" s="15"/>
       <c r="G110" s="15"/>
       <c r="H110" s="15"/>
       <c r="I110" s="16"/>
       <c r="J110" s="14"/>
-      <c r="K110" s="23"/>
+      <c r="K110" s="15"/>
       <c r="L110" s="15"/>
       <c r="M110" s="15"/>
       <c r="N110" s="15"/>
@@ -2737,12 +2798,12 @@
         <v>109</v>
       </c>
       <c r="B111" s="12"/>
-      <c r="F111" s="23"/>
+      <c r="F111" s="15"/>
       <c r="G111" s="15"/>
       <c r="H111" s="15"/>
       <c r="I111" s="16"/>
       <c r="J111" s="14"/>
-      <c r="K111" s="23"/>
+      <c r="K111" s="15"/>
       <c r="L111" s="15"/>
       <c r="M111" s="15"/>
       <c r="N111" s="15"/>
@@ -2752,12 +2813,12 @@
         <v>110</v>
       </c>
       <c r="B112" s="12"/>
-      <c r="F112" s="23"/>
+      <c r="F112" s="15"/>
       <c r="G112" s="15"/>
       <c r="H112" s="15"/>
       <c r="I112" s="16"/>
       <c r="J112" s="14"/>
-      <c r="K112" s="23"/>
+      <c r="K112" s="15"/>
       <c r="L112" s="15"/>
       <c r="M112" s="15"/>
       <c r="N112" s="15"/>
@@ -2767,12 +2828,12 @@
         <v>111</v>
       </c>
       <c r="B113" s="12"/>
-      <c r="F113" s="23"/>
+      <c r="F113" s="15"/>
       <c r="G113" s="15"/>
       <c r="H113" s="15"/>
       <c r="I113" s="16"/>
       <c r="J113" s="14"/>
-      <c r="K113" s="23"/>
+      <c r="K113" s="15"/>
       <c r="L113" s="15"/>
       <c r="M113" s="15"/>
       <c r="N113" s="15"/>
@@ -2782,12 +2843,12 @@
         <v>112</v>
       </c>
       <c r="B114" s="12"/>
-      <c r="F114" s="23"/>
+      <c r="F114" s="15"/>
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
       <c r="I114" s="16"/>
       <c r="J114" s="14"/>
-      <c r="K114" s="23"/>
+      <c r="K114" s="15"/>
       <c r="L114" s="15"/>
       <c r="M114" s="15"/>
       <c r="N114" s="15"/>
@@ -2797,12 +2858,12 @@
         <v>113</v>
       </c>
       <c r="B115" s="12"/>
-      <c r="F115" s="23"/>
+      <c r="F115" s="15"/>
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
       <c r="I115" s="16"/>
       <c r="J115" s="14"/>
-      <c r="K115" s="23"/>
+      <c r="K115" s="15"/>
       <c r="L115" s="15"/>
       <c r="M115" s="15"/>
       <c r="N115" s="15"/>
@@ -2812,12 +2873,12 @@
         <v>114</v>
       </c>
       <c r="B116" s="12"/>
-      <c r="F116" s="23"/>
+      <c r="F116" s="15"/>
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
       <c r="I116" s="16"/>
       <c r="J116" s="14"/>
-      <c r="K116" s="23"/>
+      <c r="K116" s="15"/>
       <c r="L116" s="15"/>
       <c r="M116" s="15"/>
       <c r="N116" s="15"/>
@@ -2827,12 +2888,12 @@
         <v>115</v>
       </c>
       <c r="B117" s="12"/>
-      <c r="F117" s="23"/>
+      <c r="F117" s="15"/>
       <c r="G117" s="15"/>
       <c r="H117" s="15"/>
       <c r="I117" s="16"/>
       <c r="J117" s="14"/>
-      <c r="K117" s="23"/>
+      <c r="K117" s="15"/>
       <c r="L117" s="15"/>
       <c r="M117" s="15"/>
       <c r="N117" s="15"/>
@@ -2842,12 +2903,12 @@
         <v>116</v>
       </c>
       <c r="B118" s="12"/>
-      <c r="F118" s="23"/>
+      <c r="F118" s="15"/>
       <c r="G118" s="15"/>
       <c r="H118" s="15"/>
       <c r="I118" s="16"/>
       <c r="J118" s="14"/>
-      <c r="K118" s="23"/>
+      <c r="K118" s="15"/>
       <c r="L118" s="15"/>
       <c r="M118" s="15"/>
       <c r="N118" s="15"/>
@@ -2857,12 +2918,12 @@
         <v>117</v>
       </c>
       <c r="B119" s="12"/>
-      <c r="F119" s="23"/>
+      <c r="F119" s="15"/>
       <c r="G119" s="15"/>
       <c r="H119" s="15"/>
       <c r="I119" s="16"/>
       <c r="J119" s="14"/>
-      <c r="K119" s="23"/>
+      <c r="K119" s="15"/>
       <c r="L119" s="15"/>
       <c r="M119" s="15"/>
       <c r="N119" s="15"/>
@@ -2872,12 +2933,12 @@
         <v>118</v>
       </c>
       <c r="B120" s="12"/>
-      <c r="F120" s="23"/>
+      <c r="F120" s="15"/>
       <c r="G120" s="15"/>
       <c r="H120" s="15"/>
       <c r="I120" s="16"/>
       <c r="J120" s="14"/>
-      <c r="K120" s="23"/>
+      <c r="K120" s="15"/>
       <c r="L120" s="15"/>
       <c r="M120" s="15"/>
       <c r="N120" s="15"/>
@@ -2887,12 +2948,12 @@
         <v>119</v>
       </c>
       <c r="B121" s="12"/>
-      <c r="F121" s="23"/>
+      <c r="F121" s="15"/>
       <c r="G121" s="15"/>
       <c r="H121" s="15"/>
       <c r="I121" s="16"/>
       <c r="J121" s="14"/>
-      <c r="K121" s="23"/>
+      <c r="K121" s="15"/>
       <c r="L121" s="15"/>
       <c r="M121" s="15"/>
       <c r="N121" s="15"/>
@@ -2902,12 +2963,12 @@
         <v>120</v>
       </c>
       <c r="B122" s="12"/>
-      <c r="F122" s="23"/>
+      <c r="F122" s="15"/>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
       <c r="I122" s="16"/>
       <c r="J122" s="14"/>
-      <c r="K122" s="23"/>
+      <c r="K122" s="15"/>
       <c r="L122" s="15"/>
       <c r="M122" s="15"/>
       <c r="N122" s="15"/>
@@ -2917,12 +2978,12 @@
         <v>121</v>
       </c>
       <c r="B123" s="12"/>
-      <c r="F123" s="23"/>
+      <c r="F123" s="15"/>
       <c r="G123" s="15"/>
       <c r="H123" s="15"/>
       <c r="I123" s="16"/>
       <c r="J123" s="14"/>
-      <c r="K123" s="23"/>
+      <c r="K123" s="15"/>
       <c r="L123" s="15"/>
       <c r="M123" s="15"/>
       <c r="N123" s="15"/>
@@ -2932,12 +2993,12 @@
         <v>122</v>
       </c>
       <c r="B124" s="12"/>
-      <c r="F124" s="23"/>
+      <c r="F124" s="15"/>
       <c r="G124" s="15"/>
       <c r="H124" s="15"/>
       <c r="I124" s="16"/>
       <c r="J124" s="14"/>
-      <c r="K124" s="23"/>
+      <c r="K124" s="15"/>
       <c r="L124" s="15"/>
       <c r="M124" s="15"/>
       <c r="N124" s="15"/>
@@ -2947,12 +3008,12 @@
         <v>123</v>
       </c>
       <c r="B125" s="12"/>
-      <c r="F125" s="23"/>
+      <c r="F125" s="15"/>
       <c r="G125" s="15"/>
       <c r="H125" s="15"/>
       <c r="I125" s="16"/>
       <c r="J125" s="14"/>
-      <c r="K125" s="23"/>
+      <c r="K125" s="15"/>
       <c r="L125" s="15"/>
       <c r="M125" s="15"/>
       <c r="N125" s="15"/>
@@ -2962,12 +3023,12 @@
         <v>124</v>
       </c>
       <c r="B126" s="12"/>
-      <c r="F126" s="23"/>
+      <c r="F126" s="15"/>
       <c r="G126" s="15"/>
       <c r="H126" s="15"/>
       <c r="I126" s="16"/>
       <c r="J126" s="14"/>
-      <c r="K126" s="23"/>
+      <c r="K126" s="15"/>
       <c r="L126" s="15"/>
       <c r="M126" s="15"/>
       <c r="N126" s="15"/>
@@ -2977,12 +3038,12 @@
         <v>125</v>
       </c>
       <c r="B127" s="12"/>
-      <c r="F127" s="23"/>
+      <c r="F127" s="15"/>
       <c r="G127" s="15"/>
       <c r="H127" s="15"/>
       <c r="I127" s="16"/>
       <c r="J127" s="14"/>
-      <c r="K127" s="23"/>
+      <c r="K127" s="15"/>
       <c r="L127" s="15"/>
       <c r="M127" s="15"/>
       <c r="N127" s="15"/>
@@ -2992,12 +3053,12 @@
         <v>126</v>
       </c>
       <c r="B128" s="12"/>
-      <c r="F128" s="23"/>
+      <c r="F128" s="15"/>
       <c r="G128" s="15"/>
       <c r="H128" s="15"/>
       <c r="I128" s="16"/>
       <c r="J128" s="14"/>
-      <c r="K128" s="23"/>
+      <c r="K128" s="15"/>
       <c r="L128" s="15"/>
       <c r="M128" s="15"/>
       <c r="N128" s="15"/>
@@ -3007,12 +3068,12 @@
         <v>127</v>
       </c>
       <c r="B129" s="12"/>
-      <c r="F129" s="23"/>
+      <c r="F129" s="15"/>
       <c r="G129" s="15"/>
       <c r="H129" s="15"/>
       <c r="I129" s="16"/>
       <c r="J129" s="14"/>
-      <c r="K129" s="23"/>
+      <c r="K129" s="15"/>
       <c r="L129" s="15"/>
       <c r="M129" s="15"/>
       <c r="N129" s="15"/>
@@ -3022,12 +3083,12 @@
         <v>128</v>
       </c>
       <c r="B130" s="12"/>
-      <c r="F130" s="23"/>
+      <c r="F130" s="15"/>
       <c r="G130" s="15"/>
       <c r="H130" s="15"/>
       <c r="I130" s="16"/>
       <c r="J130" s="14"/>
-      <c r="K130" s="23"/>
+      <c r="K130" s="15"/>
       <c r="L130" s="15"/>
       <c r="M130" s="15"/>
       <c r="N130" s="15"/>
@@ -3037,12 +3098,12 @@
         <v>129</v>
       </c>
       <c r="B131" s="12"/>
-      <c r="F131" s="23"/>
+      <c r="F131" s="15"/>
       <c r="G131" s="15"/>
       <c r="H131" s="15"/>
       <c r="I131" s="16"/>
       <c r="J131" s="14"/>
-      <c r="K131" s="23"/>
+      <c r="K131" s="15"/>
       <c r="L131" s="15"/>
       <c r="M131" s="15"/>
       <c r="N131" s="15"/>
@@ -3052,12 +3113,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="12"/>
-      <c r="F132" s="23"/>
+      <c r="F132" s="15"/>
       <c r="G132" s="15"/>
       <c r="H132" s="15"/>
       <c r="I132" s="16"/>
       <c r="J132" s="14"/>
-      <c r="K132" s="23"/>
+      <c r="K132" s="15"/>
       <c r="L132" s="15"/>
       <c r="M132" s="15"/>
       <c r="N132" s="15"/>
@@ -3067,12 +3128,12 @@
         <v>131</v>
       </c>
       <c r="B133" s="12"/>
-      <c r="F133" s="23"/>
+      <c r="F133" s="15"/>
       <c r="G133" s="15"/>
       <c r="H133" s="15"/>
       <c r="I133" s="16"/>
       <c r="J133" s="14"/>
-      <c r="K133" s="23"/>
+      <c r="K133" s="15"/>
       <c r="L133" s="15"/>
       <c r="M133" s="15"/>
       <c r="N133" s="15"/>
@@ -3082,12 +3143,12 @@
         <v>132</v>
       </c>
       <c r="B134" s="12"/>
-      <c r="F134" s="23"/>
+      <c r="F134" s="15"/>
       <c r="G134" s="15"/>
       <c r="H134" s="15"/>
       <c r="I134" s="16"/>
       <c r="J134" s="14"/>
-      <c r="K134" s="23"/>
+      <c r="K134" s="15"/>
       <c r="L134" s="15"/>
       <c r="M134" s="15"/>
       <c r="N134" s="15"/>
@@ -3097,12 +3158,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="12"/>
-      <c r="F135" s="23"/>
+      <c r="F135" s="15"/>
       <c r="G135" s="15"/>
       <c r="H135" s="15"/>
       <c r="I135" s="16"/>
       <c r="J135" s="14"/>
-      <c r="K135" s="23"/>
+      <c r="K135" s="15"/>
       <c r="L135" s="15"/>
       <c r="M135" s="15"/>
       <c r="N135" s="15"/>
@@ -3112,12 +3173,12 @@
         <v>134</v>
       </c>
       <c r="B136" s="12"/>
-      <c r="F136" s="23"/>
+      <c r="F136" s="15"/>
       <c r="G136" s="15"/>
       <c r="H136" s="15"/>
       <c r="I136" s="16"/>
       <c r="J136" s="14"/>
-      <c r="K136" s="23"/>
+      <c r="K136" s="15"/>
       <c r="L136" s="15"/>
       <c r="M136" s="15"/>
       <c r="N136" s="15"/>
@@ -3127,12 +3188,12 @@
         <v>135</v>
       </c>
       <c r="B137" s="12"/>
-      <c r="F137" s="23"/>
+      <c r="F137" s="15"/>
       <c r="G137" s="15"/>
       <c r="H137" s="15"/>
       <c r="I137" s="16"/>
       <c r="J137" s="14"/>
-      <c r="K137" s="23"/>
+      <c r="K137" s="15"/>
       <c r="L137" s="15"/>
       <c r="M137" s="15"/>
       <c r="N137" s="15"/>
@@ -3142,12 +3203,12 @@
         <v>136</v>
       </c>
       <c r="B138" s="12"/>
-      <c r="F138" s="23"/>
+      <c r="F138" s="15"/>
       <c r="G138" s="15"/>
       <c r="H138" s="15"/>
       <c r="I138" s="16"/>
       <c r="J138" s="14"/>
-      <c r="K138" s="23"/>
+      <c r="K138" s="15"/>
       <c r="L138" s="15"/>
       <c r="M138" s="15"/>
       <c r="N138" s="15"/>
@@ -3157,12 +3218,12 @@
         <v>137</v>
       </c>
       <c r="B139" s="12"/>
-      <c r="F139" s="23"/>
+      <c r="F139" s="15"/>
       <c r="G139" s="15"/>
       <c r="H139" s="15"/>
       <c r="I139" s="16"/>
       <c r="J139" s="14"/>
-      <c r="K139" s="23"/>
+      <c r="K139" s="15"/>
       <c r="L139" s="15"/>
       <c r="M139" s="15"/>
       <c r="N139" s="15"/>
@@ -3172,12 +3233,12 @@
         <v>138</v>
       </c>
       <c r="B140" s="12"/>
-      <c r="F140" s="23"/>
+      <c r="F140" s="15"/>
       <c r="G140" s="15"/>
       <c r="H140" s="15"/>
       <c r="I140" s="16"/>
       <c r="J140" s="14"/>
-      <c r="K140" s="23"/>
+      <c r="K140" s="15"/>
       <c r="L140" s="15"/>
       <c r="M140" s="15"/>
       <c r="N140" s="15"/>
@@ -3187,12 +3248,12 @@
         <v>139</v>
       </c>
       <c r="B141" s="12"/>
-      <c r="F141" s="23"/>
+      <c r="F141" s="15"/>
       <c r="G141" s="15"/>
       <c r="H141" s="15"/>
       <c r="I141" s="16"/>
       <c r="J141" s="14"/>
-      <c r="K141" s="23"/>
+      <c r="K141" s="15"/>
       <c r="L141" s="15"/>
       <c r="M141" s="15"/>
       <c r="N141" s="15"/>
@@ -3202,12 +3263,12 @@
         <v>140</v>
       </c>
       <c r="B142" s="12"/>
-      <c r="F142" s="23"/>
+      <c r="F142" s="15"/>
       <c r="G142" s="15"/>
       <c r="H142" s="15"/>
       <c r="I142" s="16"/>
       <c r="J142" s="14"/>
-      <c r="K142" s="23"/>
+      <c r="K142" s="15"/>
       <c r="L142" s="15"/>
       <c r="M142" s="15"/>
       <c r="N142" s="15"/>
@@ -3217,12 +3278,12 @@
         <v>141</v>
       </c>
       <c r="B143" s="12"/>
-      <c r="F143" s="23"/>
+      <c r="F143" s="15"/>
       <c r="G143" s="15"/>
       <c r="H143" s="15"/>
       <c r="I143" s="16"/>
       <c r="J143" s="14"/>
-      <c r="K143" s="23"/>
+      <c r="K143" s="15"/>
       <c r="L143" s="15"/>
       <c r="M143" s="15"/>
       <c r="N143" s="15"/>
@@ -3232,12 +3293,12 @@
         <v>142</v>
       </c>
       <c r="B144" s="12"/>
-      <c r="F144" s="23"/>
+      <c r="F144" s="15"/>
       <c r="G144" s="15"/>
       <c r="H144" s="15"/>
       <c r="I144" s="16"/>
       <c r="J144" s="14"/>
-      <c r="K144" s="23"/>
+      <c r="K144" s="15"/>
       <c r="L144" s="15"/>
       <c r="M144" s="15"/>
       <c r="N144" s="15"/>
@@ -3247,12 +3308,12 @@
         <v>143</v>
       </c>
       <c r="B145" s="12"/>
-      <c r="F145" s="23"/>
+      <c r="F145" s="15"/>
       <c r="G145" s="15"/>
       <c r="H145" s="15"/>
       <c r="I145" s="16"/>
       <c r="J145" s="14"/>
-      <c r="K145" s="23"/>
+      <c r="K145" s="15"/>
       <c r="L145" s="15"/>
       <c r="M145" s="15"/>
       <c r="N145" s="15"/>
@@ -3262,12 +3323,12 @@
         <v>144</v>
       </c>
       <c r="B146" s="12"/>
-      <c r="F146" s="23"/>
+      <c r="F146" s="15"/>
       <c r="G146" s="15"/>
       <c r="H146" s="15"/>
       <c r="I146" s="16"/>
       <c r="J146" s="14"/>
-      <c r="K146" s="23"/>
+      <c r="K146" s="15"/>
       <c r="L146" s="15"/>
       <c r="M146" s="15"/>
       <c r="N146" s="15"/>
@@ -3277,12 +3338,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="12"/>
-      <c r="F147" s="23"/>
+      <c r="F147" s="15"/>
       <c r="G147" s="15"/>
       <c r="H147" s="15"/>
       <c r="I147" s="16"/>
       <c r="J147" s="14"/>
-      <c r="K147" s="23"/>
+      <c r="K147" s="15"/>
       <c r="L147" s="15"/>
       <c r="M147" s="15"/>
       <c r="N147" s="15"/>
@@ -3292,12 +3353,12 @@
         <v>146</v>
       </c>
       <c r="B148" s="12"/>
-      <c r="F148" s="23"/>
+      <c r="F148" s="15"/>
       <c r="G148" s="15"/>
       <c r="H148" s="15"/>
       <c r="I148" s="16"/>
       <c r="J148" s="14"/>
-      <c r="K148" s="23"/>
+      <c r="K148" s="15"/>
       <c r="L148" s="15"/>
       <c r="M148" s="15"/>
       <c r="N148" s="15"/>
@@ -3307,12 +3368,12 @@
         <v>147</v>
       </c>
       <c r="B149" s="12"/>
-      <c r="F149" s="23"/>
+      <c r="F149" s="15"/>
       <c r="G149" s="15"/>
       <c r="H149" s="15"/>
       <c r="I149" s="16"/>
       <c r="J149" s="14"/>
-      <c r="K149" s="23"/>
+      <c r="K149" s="15"/>
       <c r="L149" s="15"/>
       <c r="M149" s="15"/>
       <c r="N149" s="15"/>
@@ -3322,12 +3383,12 @@
         <v>148</v>
       </c>
       <c r="B150" s="12"/>
-      <c r="F150" s="23"/>
+      <c r="F150" s="15"/>
       <c r="G150" s="15"/>
       <c r="H150" s="15"/>
       <c r="I150" s="16"/>
       <c r="J150" s="14"/>
-      <c r="K150" s="23"/>
+      <c r="K150" s="15"/>
       <c r="L150" s="15"/>
       <c r="M150" s="15"/>
       <c r="N150" s="15"/>
@@ -3337,12 +3398,12 @@
         <v>149</v>
       </c>
       <c r="B151" s="12"/>
-      <c r="F151" s="23"/>
+      <c r="F151" s="15"/>
       <c r="G151" s="15"/>
       <c r="H151" s="15"/>
       <c r="I151" s="16"/>
       <c r="J151" s="14"/>
-      <c r="K151" s="23"/>
+      <c r="K151" s="15"/>
       <c r="L151" s="15"/>
       <c r="M151" s="15"/>
       <c r="N151" s="15"/>
@@ -3352,12 +3413,12 @@
         <v>150</v>
       </c>
       <c r="B152" s="12"/>
-      <c r="F152" s="23"/>
+      <c r="F152" s="15"/>
       <c r="G152" s="15"/>
       <c r="H152" s="15"/>
       <c r="I152" s="16"/>
       <c r="J152" s="14"/>
-      <c r="K152" s="23"/>
+      <c r="K152" s="15"/>
       <c r="L152" s="15"/>
       <c r="M152" s="15"/>
       <c r="N152" s="15"/>
@@ -3367,12 +3428,12 @@
         <v>151</v>
       </c>
       <c r="B153" s="12"/>
-      <c r="F153" s="23"/>
+      <c r="F153" s="15"/>
       <c r="G153" s="15"/>
       <c r="H153" s="15"/>
       <c r="I153" s="16"/>
       <c r="J153" s="14"/>
-      <c r="K153" s="23"/>
+      <c r="K153" s="15"/>
       <c r="L153" s="15"/>
       <c r="M153" s="15"/>
       <c r="N153" s="15"/>
@@ -3382,12 +3443,12 @@
         <v>152</v>
       </c>
       <c r="B154" s="12"/>
-      <c r="F154" s="23"/>
+      <c r="F154" s="15"/>
       <c r="G154" s="15"/>
       <c r="H154" s="15"/>
       <c r="I154" s="16"/>
       <c r="J154" s="14"/>
-      <c r="K154" s="23"/>
+      <c r="K154" s="15"/>
       <c r="L154" s="15"/>
       <c r="M154" s="15"/>
       <c r="N154" s="15"/>
@@ -3397,12 +3458,12 @@
         <v>153</v>
       </c>
       <c r="B155" s="12"/>
-      <c r="F155" s="23"/>
+      <c r="F155" s="15"/>
       <c r="G155" s="15"/>
       <c r="H155" s="15"/>
       <c r="I155" s="16"/>
       <c r="J155" s="14"/>
-      <c r="K155" s="23"/>
+      <c r="K155" s="15"/>
       <c r="L155" s="15"/>
       <c r="M155" s="15"/>
       <c r="N155" s="15"/>
@@ -3412,12 +3473,12 @@
         <v>154</v>
       </c>
       <c r="B156" s="12"/>
-      <c r="F156" s="23"/>
+      <c r="F156" s="15"/>
       <c r="G156" s="15"/>
       <c r="H156" s="15"/>
       <c r="I156" s="16"/>
       <c r="J156" s="14"/>
-      <c r="K156" s="23"/>
+      <c r="K156" s="15"/>
       <c r="L156" s="15"/>
       <c r="M156" s="15"/>
       <c r="N156" s="15"/>
@@ -3427,12 +3488,12 @@
         <v>155</v>
       </c>
       <c r="B157" s="12"/>
-      <c r="F157" s="23"/>
+      <c r="F157" s="15"/>
       <c r="G157" s="15"/>
       <c r="H157" s="15"/>
       <c r="I157" s="16"/>
       <c r="J157" s="14"/>
-      <c r="K157" s="23"/>
+      <c r="K157" s="15"/>
       <c r="L157" s="15"/>
       <c r="M157" s="15"/>
       <c r="N157" s="15"/>
@@ -3442,12 +3503,12 @@
         <v>156</v>
       </c>
       <c r="B158" s="12"/>
-      <c r="F158" s="23"/>
+      <c r="F158" s="15"/>
       <c r="G158" s="15"/>
       <c r="H158" s="15"/>
       <c r="I158" s="16"/>
       <c r="J158" s="14"/>
-      <c r="K158" s="23"/>
+      <c r="K158" s="15"/>
       <c r="L158" s="15"/>
       <c r="M158" s="15"/>
       <c r="N158" s="15"/>
@@ -3457,12 +3518,12 @@
         <v>157</v>
       </c>
       <c r="B159" s="12"/>
-      <c r="F159" s="23"/>
+      <c r="F159" s="15"/>
       <c r="G159" s="15"/>
       <c r="H159" s="15"/>
       <c r="I159" s="16"/>
       <c r="J159" s="14"/>
-      <c r="K159" s="23"/>
+      <c r="K159" s="15"/>
       <c r="L159" s="15"/>
       <c r="M159" s="15"/>
       <c r="N159" s="15"/>
@@ -3472,12 +3533,12 @@
         <v>158</v>
       </c>
       <c r="B160" s="12"/>
-      <c r="F160" s="23"/>
+      <c r="F160" s="15"/>
       <c r="G160" s="15"/>
       <c r="H160" s="15"/>
       <c r="I160" s="16"/>
       <c r="J160" s="14"/>
-      <c r="K160" s="23"/>
+      <c r="K160" s="15"/>
       <c r="L160" s="15"/>
       <c r="M160" s="15"/>
       <c r="N160" s="15"/>
@@ -3487,12 +3548,12 @@
         <v>159</v>
       </c>
       <c r="B161" s="12"/>
-      <c r="F161" s="23"/>
+      <c r="F161" s="15"/>
       <c r="G161" s="15"/>
       <c r="H161" s="15"/>
       <c r="I161" s="16"/>
       <c r="J161" s="14"/>
-      <c r="K161" s="23"/>
+      <c r="K161" s="15"/>
       <c r="L161" s="15"/>
       <c r="M161" s="15"/>
       <c r="N161" s="15"/>
@@ -3502,12 +3563,12 @@
         <v>160</v>
       </c>
       <c r="B162" s="12"/>
-      <c r="F162" s="23"/>
+      <c r="F162" s="15"/>
       <c r="G162" s="15"/>
       <c r="H162" s="15"/>
       <c r="I162" s="16"/>
       <c r="J162" s="14"/>
-      <c r="K162" s="23"/>
+      <c r="K162" s="15"/>
       <c r="L162" s="15"/>
       <c r="M162" s="15"/>
       <c r="N162" s="15"/>
@@ -3517,12 +3578,12 @@
         <v>161</v>
       </c>
       <c r="B163" s="12"/>
-      <c r="F163" s="23"/>
+      <c r="F163" s="15"/>
       <c r="G163" s="15"/>
       <c r="H163" s="15"/>
       <c r="I163" s="16"/>
       <c r="J163" s="14"/>
-      <c r="K163" s="23"/>
+      <c r="K163" s="15"/>
       <c r="L163" s="15"/>
       <c r="M163" s="15"/>
       <c r="N163" s="15"/>
@@ -3532,12 +3593,12 @@
         <v>162</v>
       </c>
       <c r="B164" s="12"/>
-      <c r="F164" s="23"/>
+      <c r="F164" s="15"/>
       <c r="G164" s="15"/>
       <c r="H164" s="15"/>
       <c r="I164" s="16"/>
       <c r="J164" s="14"/>
-      <c r="K164" s="23"/>
+      <c r="K164" s="15"/>
       <c r="L164" s="15"/>
       <c r="M164" s="15"/>
       <c r="N164" s="15"/>
@@ -3547,12 +3608,12 @@
         <v>163</v>
       </c>
       <c r="B165" s="12"/>
-      <c r="F165" s="23"/>
+      <c r="F165" s="15"/>
       <c r="G165" s="15"/>
       <c r="H165" s="15"/>
       <c r="I165" s="16"/>
       <c r="J165" s="14"/>
-      <c r="K165" s="23"/>
+      <c r="K165" s="15"/>
       <c r="L165" s="15"/>
       <c r="M165" s="15"/>
       <c r="N165" s="15"/>
@@ -3562,12 +3623,12 @@
         <v>164</v>
       </c>
       <c r="B166" s="12"/>
-      <c r="F166" s="23"/>
+      <c r="F166" s="15"/>
       <c r="G166" s="15"/>
       <c r="H166" s="15"/>
       <c r="I166" s="16"/>
       <c r="J166" s="14"/>
-      <c r="K166" s="23"/>
+      <c r="K166" s="15"/>
       <c r="L166" s="15"/>
       <c r="M166" s="15"/>
       <c r="N166" s="15"/>
@@ -3577,12 +3638,12 @@
         <v>165</v>
       </c>
       <c r="B167" s="12"/>
-      <c r="F167" s="23"/>
+      <c r="F167" s="15"/>
       <c r="G167" s="15"/>
       <c r="H167" s="15"/>
       <c r="I167" s="16"/>
       <c r="J167" s="14"/>
-      <c r="K167" s="23"/>
+      <c r="K167" s="15"/>
       <c r="L167" s="15"/>
       <c r="M167" s="15"/>
       <c r="N167" s="15"/>
@@ -3592,12 +3653,12 @@
         <v>166</v>
       </c>
       <c r="B168" s="12"/>
-      <c r="F168" s="23"/>
+      <c r="F168" s="15"/>
       <c r="G168" s="15"/>
       <c r="H168" s="15"/>
       <c r="I168" s="16"/>
       <c r="J168" s="14"/>
-      <c r="K168" s="23"/>
+      <c r="K168" s="15"/>
       <c r="L168" s="15"/>
       <c r="M168" s="15"/>
       <c r="N168" s="15"/>
@@ -3607,12 +3668,12 @@
         <v>167</v>
       </c>
       <c r="B169" s="12"/>
-      <c r="F169" s="23"/>
+      <c r="F169" s="15"/>
       <c r="G169" s="15"/>
       <c r="H169" s="15"/>
       <c r="I169" s="16"/>
       <c r="J169" s="14"/>
-      <c r="K169" s="23"/>
+      <c r="K169" s="15"/>
       <c r="L169" s="15"/>
       <c r="M169" s="15"/>
       <c r="N169" s="15"/>
@@ -3622,12 +3683,12 @@
         <v>168</v>
       </c>
       <c r="B170" s="12"/>
-      <c r="F170" s="23"/>
+      <c r="F170" s="15"/>
       <c r="G170" s="15"/>
       <c r="H170" s="15"/>
       <c r="I170" s="16"/>
       <c r="J170" s="14"/>
-      <c r="K170" s="23"/>
+      <c r="K170" s="15"/>
       <c r="L170" s="15"/>
       <c r="M170" s="15"/>
       <c r="N170" s="15"/>
@@ -3637,12 +3698,12 @@
         <v>169</v>
       </c>
       <c r="B171" s="12"/>
-      <c r="F171" s="23"/>
+      <c r="F171" s="15"/>
       <c r="G171" s="15"/>
       <c r="H171" s="15"/>
       <c r="I171" s="16"/>
       <c r="J171" s="14"/>
-      <c r="K171" s="23"/>
+      <c r="K171" s="15"/>
       <c r="L171" s="15"/>
       <c r="M171" s="15"/>
       <c r="N171" s="15"/>
@@ -3652,12 +3713,12 @@
         <v>170</v>
       </c>
       <c r="B172" s="12"/>
-      <c r="F172" s="23"/>
+      <c r="F172" s="15"/>
       <c r="G172" s="15"/>
       <c r="H172" s="15"/>
       <c r="I172" s="16"/>
       <c r="J172" s="14"/>
-      <c r="K172" s="23"/>
+      <c r="K172" s="15"/>
       <c r="L172" s="15"/>
       <c r="M172" s="15"/>
       <c r="N172" s="15"/>
@@ -3667,12 +3728,12 @@
         <v>171</v>
       </c>
       <c r="B173" s="12"/>
-      <c r="F173" s="23"/>
+      <c r="F173" s="15"/>
       <c r="G173" s="15"/>
       <c r="H173" s="15"/>
       <c r="I173" s="16"/>
       <c r="J173" s="14"/>
-      <c r="K173" s="23"/>
+      <c r="K173" s="15"/>
       <c r="L173" s="15"/>
       <c r="M173" s="15"/>
       <c r="N173" s="15"/>
@@ -3682,12 +3743,12 @@
         <v>172</v>
       </c>
       <c r="B174" s="12"/>
-      <c r="F174" s="23"/>
+      <c r="F174" s="15"/>
       <c r="G174" s="15"/>
       <c r="H174" s="15"/>
       <c r="I174" s="16"/>
       <c r="J174" s="14"/>
-      <c r="K174" s="23"/>
+      <c r="K174" s="15"/>
       <c r="L174" s="15"/>
       <c r="M174" s="15"/>
       <c r="N174" s="15"/>
@@ -3697,12 +3758,12 @@
         <v>173</v>
       </c>
       <c r="B175" s="12"/>
-      <c r="F175" s="23"/>
+      <c r="F175" s="15"/>
       <c r="G175" s="15"/>
       <c r="H175" s="15"/>
       <c r="I175" s="16"/>
       <c r="J175" s="14"/>
-      <c r="K175" s="23"/>
+      <c r="K175" s="15"/>
       <c r="L175" s="15"/>
       <c r="M175" s="15"/>
       <c r="N175" s="15"/>
@@ -3712,12 +3773,12 @@
         <v>174</v>
       </c>
       <c r="B176" s="12"/>
-      <c r="F176" s="23"/>
+      <c r="F176" s="15"/>
       <c r="G176" s="15"/>
       <c r="H176" s="15"/>
       <c r="I176" s="16"/>
       <c r="J176" s="14"/>
-      <c r="K176" s="23"/>
+      <c r="K176" s="15"/>
       <c r="L176" s="15"/>
       <c r="M176" s="15"/>
       <c r="N176" s="15"/>
@@ -3727,12 +3788,12 @@
         <v>175</v>
       </c>
       <c r="B177" s="12"/>
-      <c r="F177" s="23"/>
+      <c r="F177" s="15"/>
       <c r="G177" s="15"/>
       <c r="H177" s="15"/>
       <c r="I177" s="16"/>
       <c r="J177" s="14"/>
-      <c r="K177" s="23"/>
+      <c r="K177" s="15"/>
       <c r="L177" s="15"/>
       <c r="M177" s="15"/>
       <c r="N177" s="15"/>
@@ -3742,12 +3803,12 @@
         <v>176</v>
       </c>
       <c r="B178" s="12"/>
-      <c r="F178" s="23"/>
+      <c r="F178" s="15"/>
       <c r="G178" s="15"/>
       <c r="H178" s="15"/>
       <c r="I178" s="16"/>
       <c r="J178" s="14"/>
-      <c r="K178" s="23"/>
+      <c r="K178" s="15"/>
       <c r="L178" s="15"/>
       <c r="M178" s="15"/>
       <c r="N178" s="15"/>
@@ -3757,12 +3818,12 @@
         <v>177</v>
       </c>
       <c r="B179" s="12"/>
-      <c r="F179" s="23"/>
+      <c r="F179" s="15"/>
       <c r="G179" s="15"/>
       <c r="H179" s="15"/>
       <c r="I179" s="16"/>
       <c r="J179" s="14"/>
-      <c r="K179" s="23"/>
+      <c r="K179" s="15"/>
       <c r="L179" s="15"/>
       <c r="M179" s="15"/>
       <c r="N179" s="15"/>
@@ -3772,12 +3833,12 @@
         <v>178</v>
       </c>
       <c r="B180" s="12"/>
-      <c r="F180" s="23"/>
+      <c r="F180" s="15"/>
       <c r="G180" s="15"/>
       <c r="H180" s="15"/>
       <c r="I180" s="16"/>
       <c r="J180" s="14"/>
-      <c r="K180" s="23"/>
+      <c r="K180" s="15"/>
       <c r="L180" s="15"/>
       <c r="M180" s="15"/>
       <c r="N180" s="15"/>
@@ -3787,12 +3848,12 @@
         <v>179</v>
       </c>
       <c r="B181" s="12"/>
-      <c r="F181" s="23"/>
+      <c r="F181" s="15"/>
       <c r="G181" s="15"/>
       <c r="H181" s="15"/>
       <c r="I181" s="16"/>
       <c r="J181" s="14"/>
-      <c r="K181" s="23"/>
+      <c r="K181" s="15"/>
       <c r="L181" s="15"/>
       <c r="M181" s="15"/>
       <c r="N181" s="15"/>
@@ -3802,12 +3863,12 @@
         <v>180</v>
       </c>
       <c r="B182" s="12"/>
-      <c r="F182" s="23"/>
+      <c r="F182" s="15"/>
       <c r="G182" s="15"/>
       <c r="H182" s="15"/>
       <c r="I182" s="16"/>
       <c r="J182" s="14"/>
-      <c r="K182" s="23"/>
+      <c r="K182" s="15"/>
       <c r="L182" s="15"/>
       <c r="M182" s="15"/>
       <c r="N182" s="15"/>
@@ -3817,12 +3878,12 @@
         <v>181</v>
       </c>
       <c r="B183" s="12"/>
-      <c r="F183" s="23"/>
+      <c r="F183" s="15"/>
       <c r="G183" s="15"/>
       <c r="H183" s="15"/>
       <c r="I183" s="16"/>
       <c r="J183" s="14"/>
-      <c r="K183" s="23"/>
+      <c r="K183" s="15"/>
       <c r="L183" s="15"/>
       <c r="M183" s="15"/>
       <c r="N183" s="15"/>
@@ -3832,12 +3893,12 @@
         <v>182</v>
       </c>
       <c r="B184" s="12"/>
-      <c r="F184" s="23"/>
+      <c r="F184" s="15"/>
       <c r="G184" s="15"/>
       <c r="H184" s="15"/>
       <c r="I184" s="16"/>
       <c r="J184" s="14"/>
-      <c r="K184" s="23"/>
+      <c r="K184" s="15"/>
       <c r="L184" s="15"/>
       <c r="M184" s="15"/>
       <c r="N184" s="15"/>
@@ -3847,12 +3908,12 @@
         <v>183</v>
       </c>
       <c r="B185" s="12"/>
-      <c r="F185" s="23"/>
+      <c r="F185" s="15"/>
       <c r="G185" s="15"/>
       <c r="H185" s="15"/>
       <c r="I185" s="16"/>
       <c r="J185" s="14"/>
-      <c r="K185" s="23"/>
+      <c r="K185" s="15"/>
       <c r="L185" s="15"/>
       <c r="M185" s="15"/>
       <c r="N185" s="15"/>
@@ -3862,12 +3923,12 @@
         <v>184</v>
       </c>
       <c r="B186" s="12"/>
-      <c r="F186" s="23"/>
+      <c r="F186" s="15"/>
       <c r="G186" s="15"/>
       <c r="H186" s="15"/>
       <c r="I186" s="16"/>
       <c r="J186" s="14"/>
-      <c r="K186" s="23"/>
+      <c r="K186" s="15"/>
       <c r="L186" s="15"/>
       <c r="M186" s="15"/>
       <c r="N186" s="15"/>
@@ -3877,12 +3938,12 @@
         <v>185</v>
       </c>
       <c r="B187" s="12"/>
-      <c r="F187" s="23"/>
+      <c r="F187" s="15"/>
       <c r="G187" s="15"/>
       <c r="H187" s="15"/>
       <c r="I187" s="16"/>
       <c r="J187" s="14"/>
-      <c r="K187" s="23"/>
+      <c r="K187" s="15"/>
       <c r="L187" s="15"/>
       <c r="M187" s="15"/>
       <c r="N187" s="15"/>
@@ -3892,12 +3953,12 @@
         <v>186</v>
       </c>
       <c r="B188" s="12"/>
-      <c r="F188" s="23"/>
+      <c r="F188" s="15"/>
       <c r="G188" s="15"/>
       <c r="H188" s="15"/>
       <c r="I188" s="16"/>
       <c r="J188" s="14"/>
-      <c r="K188" s="23"/>
+      <c r="K188" s="15"/>
       <c r="L188" s="15"/>
       <c r="M188" s="15"/>
       <c r="N188" s="15"/>
@@ -3907,12 +3968,12 @@
         <v>187</v>
       </c>
       <c r="B189" s="12"/>
-      <c r="F189" s="23"/>
+      <c r="F189" s="15"/>
       <c r="G189" s="15"/>
       <c r="H189" s="15"/>
       <c r="I189" s="16"/>
       <c r="J189" s="14"/>
-      <c r="K189" s="23"/>
+      <c r="K189" s="15"/>
       <c r="L189" s="15"/>
       <c r="M189" s="15"/>
       <c r="N189" s="15"/>
@@ -3922,12 +3983,12 @@
         <v>188</v>
       </c>
       <c r="B190" s="12"/>
-      <c r="F190" s="23"/>
+      <c r="F190" s="15"/>
       <c r="G190" s="15"/>
       <c r="H190" s="15"/>
       <c r="I190" s="16"/>
       <c r="J190" s="14"/>
-      <c r="K190" s="23"/>
+      <c r="K190" s="15"/>
       <c r="L190" s="15"/>
       <c r="M190" s="15"/>
       <c r="N190" s="15"/>
@@ -3937,12 +3998,12 @@
         <v>189</v>
       </c>
       <c r="B191" s="12"/>
-      <c r="F191" s="23"/>
+      <c r="F191" s="15"/>
       <c r="G191" s="15"/>
       <c r="H191" s="15"/>
       <c r="I191" s="16"/>
       <c r="J191" s="14"/>
-      <c r="K191" s="23"/>
+      <c r="K191" s="15"/>
       <c r="L191" s="15"/>
       <c r="M191" s="15"/>
       <c r="N191" s="15"/>
@@ -3952,12 +4013,12 @@
         <v>190</v>
       </c>
       <c r="B192" s="12"/>
-      <c r="F192" s="23"/>
+      <c r="F192" s="15"/>
       <c r="G192" s="15"/>
       <c r="H192" s="15"/>
       <c r="I192" s="16"/>
       <c r="J192" s="14"/>
-      <c r="K192" s="23"/>
+      <c r="K192" s="15"/>
       <c r="L192" s="15"/>
       <c r="M192" s="15"/>
       <c r="N192" s="15"/>
@@ -3967,12 +4028,12 @@
         <v>191</v>
       </c>
       <c r="B193" s="12"/>
-      <c r="F193" s="23"/>
+      <c r="F193" s="15"/>
       <c r="G193" s="15"/>
       <c r="H193" s="15"/>
       <c r="I193" s="16"/>
       <c r="J193" s="14"/>
-      <c r="K193" s="23"/>
+      <c r="K193" s="15"/>
       <c r="L193" s="15"/>
       <c r="M193" s="15"/>
       <c r="N193" s="15"/>
@@ -3982,12 +4043,12 @@
         <v>192</v>
       </c>
       <c r="B194" s="12"/>
-      <c r="F194" s="23"/>
+      <c r="F194" s="15"/>
       <c r="G194" s="15"/>
       <c r="H194" s="15"/>
       <c r="I194" s="16"/>
       <c r="J194" s="14"/>
-      <c r="K194" s="23"/>
+      <c r="K194" s="15"/>
       <c r="L194" s="15"/>
       <c r="M194" s="15"/>
       <c r="N194" s="15"/>
@@ -3997,12 +4058,12 @@
         <v>193</v>
       </c>
       <c r="B195" s="12"/>
-      <c r="F195" s="23"/>
+      <c r="F195" s="15"/>
       <c r="G195" s="15"/>
       <c r="H195" s="15"/>
       <c r="I195" s="16"/>
       <c r="J195" s="14"/>
-      <c r="K195" s="23"/>
+      <c r="K195" s="15"/>
       <c r="L195" s="15"/>
       <c r="M195" s="15"/>
       <c r="N195" s="15"/>
@@ -4012,12 +4073,12 @@
         <v>194</v>
       </c>
       <c r="B196" s="12"/>
-      <c r="F196" s="23"/>
+      <c r="F196" s="15"/>
       <c r="G196" s="15"/>
       <c r="H196" s="15"/>
       <c r="I196" s="16"/>
       <c r="J196" s="14"/>
-      <c r="K196" s="23"/>
+      <c r="K196" s="15"/>
       <c r="L196" s="15"/>
       <c r="M196" s="15"/>
       <c r="N196" s="15"/>
@@ -4027,12 +4088,12 @@
         <v>195</v>
       </c>
       <c r="B197" s="12"/>
-      <c r="F197" s="23"/>
+      <c r="F197" s="15"/>
       <c r="G197" s="15"/>
       <c r="H197" s="15"/>
       <c r="I197" s="16"/>
       <c r="J197" s="14"/>
-      <c r="K197" s="23"/>
+      <c r="K197" s="15"/>
       <c r="L197" s="15"/>
       <c r="M197" s="15"/>
       <c r="N197" s="15"/>
@@ -4042,12 +4103,12 @@
         <v>196</v>
       </c>
       <c r="B198" s="12"/>
-      <c r="F198" s="23"/>
+      <c r="F198" s="15"/>
       <c r="G198" s="15"/>
       <c r="H198" s="15"/>
       <c r="I198" s="16"/>
       <c r="J198" s="14"/>
-      <c r="K198" s="23"/>
+      <c r="K198" s="15"/>
       <c r="L198" s="15"/>
       <c r="M198" s="15"/>
       <c r="N198" s="15"/>
@@ -4057,12 +4118,12 @@
         <v>197</v>
       </c>
       <c r="B199" s="12"/>
-      <c r="F199" s="23"/>
+      <c r="F199" s="15"/>
       <c r="G199" s="15"/>
       <c r="H199" s="15"/>
       <c r="I199" s="16"/>
       <c r="J199" s="14"/>
-      <c r="K199" s="23"/>
+      <c r="K199" s="15"/>
       <c r="L199" s="15"/>
       <c r="M199" s="15"/>
       <c r="N199" s="15"/>
@@ -4072,12 +4133,12 @@
         <v>198</v>
       </c>
       <c r="B200" s="12"/>
-      <c r="F200" s="23"/>
+      <c r="F200" s="15"/>
       <c r="G200" s="15"/>
       <c r="H200" s="15"/>
       <c r="I200" s="16"/>
       <c r="J200" s="14"/>
-      <c r="K200" s="23"/>
+      <c r="K200" s="15"/>
       <c r="L200" s="15"/>
       <c r="M200" s="15"/>
       <c r="N200" s="15"/>
@@ -4087,12 +4148,12 @@
         <v>199</v>
       </c>
       <c r="B201" s="12"/>
-      <c r="F201" s="23"/>
+      <c r="F201" s="15"/>
       <c r="G201" s="15"/>
       <c r="H201" s="15"/>
       <c r="I201" s="16"/>
       <c r="J201" s="14"/>
-      <c r="K201" s="23"/>
+      <c r="K201" s="15"/>
       <c r="L201" s="15"/>
       <c r="M201" s="16"/>
       <c r="N201" s="15"/>
@@ -4102,12 +4163,12 @@
         <v>200</v>
       </c>
       <c r="B202" s="12"/>
-      <c r="F202" s="23"/>
+      <c r="F202" s="15"/>
       <c r="G202" s="15"/>
       <c r="H202" s="15"/>
       <c r="I202" s="16"/>
       <c r="J202" s="14"/>
-      <c r="K202" s="23"/>
+      <c r="K202" s="15"/>
       <c r="L202" s="15"/>
       <c r="M202" s="16"/>
       <c r="N202" s="15"/>

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\[Uni]Visual\FoodX-251_Classification\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBFE636-0EE2-442C-B275-562983DB1538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9756BAFE-2CA0-45BB-A51F-68F3B3317596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>Type</t>
   </si>
@@ -133,6 +133,27 @@
   </si>
   <si>
     <t>4575 (Small)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlier Removed</t>
+  </si>
+  <si>
+    <t>Augmented1</t>
+  </si>
+  <si>
+    <t>15min</t>
+  </si>
+  <si>
+    <t>48256 (Retrieval)</t>
+  </si>
+  <si>
+    <t>25101 (Small)</t>
+  </si>
+  <si>
+    <t>Centroid (k=25) - Augmented1</t>
+  </si>
+  <si>
+    <t>32min</t>
   </si>
 </sst>
 </file>
@@ -305,15 +326,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -328,6 +340,15 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,24 +835,24 @@
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="19" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="19" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1046,42 +1067,42 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="19">
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24">
+      <c r="E8" s="20"/>
+      <c r="F8" s="21">
         <v>120</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="21">
         <v>350</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25">
+      <c r="H8" s="21"/>
+      <c r="I8" s="22">
         <v>3</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="23">
         <v>0.26088</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="21">
         <v>0.51583999999999997</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="21">
         <v>0.19325999999999999</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="21">
         <v>0.39935999999999999</v>
       </c>
-      <c r="N8" s="24"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1341,7 +1362,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15" s="15">
         <v>117</v>
@@ -1371,30 +1392,80 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="B16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="15">
+        <v>350</v>
+      </c>
       <c r="H16" s="15"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
+      <c r="I16" s="16">
+        <v>10</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.25369999999999998</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0.46489999999999998</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0.191</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0.36959999999999998</v>
+      </c>
       <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="B17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="15">
+        <v>350</v>
+      </c>
       <c r="H17" s="15"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
+      <c r="I17" s="16">
+        <v>20</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="K17" s="15">
+        <v>0.52529999999999999</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0.21840000000000001</v>
+      </c>
+      <c r="M17" s="15">
+        <v>0.41410000000000002</v>
+      </c>
       <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\OneDrive\Documenti\GitHub\FoodX-251_Classification\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B97CB7-951F-487A-9299-81ECA4070B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7724BAE1-C110-4291-B5B3-A644619BBB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
   <si>
     <t>Type</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>32min</t>
+  </si>
+  <si>
+    <t>Pulizia Outlier con Pipeline</t>
+  </si>
+  <si>
+    <t>Pipeline Degradato, Togliamo alcuni elementi</t>
   </si>
 </sst>
 </file>
@@ -274,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,21 +346,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,36 +1067,36 @@
       <c r="A8" s="18">
         <v>6</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="19"/>
-      <c r="F8" s="28">
+      <c r="F8" s="14">
         <v>120</v>
       </c>
       <c r="G8" s="20">
         <v>350</v>
       </c>
       <c r="H8" s="20"/>
-      <c r="I8" s="26">
+      <c r="I8" s="15">
         <v>3</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="13">
         <v>0.26088</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="14">
         <v>0.51583999999999997</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="14">
         <v>0.19325999999999999</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="14">
         <v>0.39935999999999999</v>
       </c>
       <c r="N8" s="20"/>
@@ -1478,31 +1469,83 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="B18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="14">
+        <v>120</v>
+      </c>
+      <c r="G18" s="14">
+        <v>350</v>
+      </c>
       <c r="H18" s="14"/>
       <c r="I18" s="15"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
+      <c r="J18" s="13">
+        <v>0.26088</v>
+      </c>
+      <c r="K18" s="14">
+        <v>0.51580000000000004</v>
+      </c>
+      <c r="L18" s="14">
+        <v>0.21446999999999999</v>
+      </c>
+      <c r="M18" s="14">
+        <v>0.4415</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="B19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="14">
+        <v>120</v>
+      </c>
+      <c r="G19" s="14">
+        <v>350</v>
+      </c>
+      <c r="H19" s="14">
+        <v>108</v>
+      </c>
       <c r="I19" s="15"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
+      <c r="J19" s="13">
+        <v>0.14607000000000001</v>
+      </c>
+      <c r="K19" s="14">
+        <v>0.31364999999999998</v>
+      </c>
+      <c r="L19" s="14">
+        <v>0.1142</v>
+      </c>
+      <c r="M19" s="14">
+        <v>0.25047000000000003</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\OneDrive\Documenti\GitHub\FoodX-251_Classification\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7724BAE1-C110-4291-B5B3-A644619BBB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8CE8BD-D302-4BE1-A3C5-2EE13AFF1F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>Type</t>
   </si>
@@ -160,6 +160,27 @@
   </si>
   <si>
     <t>Pipeline Degradato, Togliamo alcuni elementi</t>
+  </si>
+  <si>
+    <t>Pulizia Outlier con Pipeline Centroid (k=25) - Outlier Removed</t>
+  </si>
+  <si>
+    <t>38 min</t>
+  </si>
+  <si>
+    <t>57907 (Retrieval)</t>
+  </si>
+  <si>
+    <t>Centroid (k=25) - Augmented2</t>
+  </si>
+  <si>
+    <t>20 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Augmented2</t>
+  </si>
+  <si>
+    <t>30121 (Small)</t>
   </si>
 </sst>
 </file>
@@ -280,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,9 +350,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -346,6 +364,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,24 +856,24 @@
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="21" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="21" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1064,7 +1088,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="23">
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -1076,14 +1100,14 @@
       <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="14">
         <v>120</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="24">
         <v>350</v>
       </c>
-      <c r="H8" s="20"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="15">
         <v>3</v>
       </c>
@@ -1099,7 +1123,7 @@
       <c r="M8" s="14">
         <v>0.39935999999999999</v>
       </c>
-      <c r="N8" s="20"/>
+      <c r="N8" s="19"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1551,62 +1575,164 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="B20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="14">
+        <v>258</v>
+      </c>
+      <c r="G20" s="14">
+        <v>350</v>
+      </c>
       <c r="H20" s="14"/>
       <c r="I20" s="15"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="J20" s="13">
+        <v>0.28764000000000001</v>
+      </c>
+      <c r="K20" s="14">
+        <v>0.54927000000000004</v>
+      </c>
+      <c r="L20" s="14">
+        <v>0.23588999999999999</v>
+      </c>
+      <c r="M20" s="14">
+        <v>0.46988000000000002</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="T20" s="9"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="B21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="14">
+        <v>258</v>
+      </c>
+      <c r="G21" s="14">
+        <v>350</v>
+      </c>
+      <c r="H21" s="14">
+        <v>108</v>
+      </c>
       <c r="I21" s="15"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+      <c r="J21" s="13">
+        <v>0.21168000000000001</v>
+      </c>
+      <c r="K21" s="14">
+        <v>0.39761000000000002</v>
+      </c>
+      <c r="L21" s="14">
+        <v>0.15847</v>
+      </c>
+      <c r="M21" s="14">
+        <v>0.31803999999999999</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="B22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="14">
+        <v>350</v>
+      </c>
       <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
+      <c r="I22" s="15">
+        <v>20</v>
+      </c>
+      <c r="J22" s="13">
+        <v>0.2858</v>
+      </c>
+      <c r="K22" s="14">
+        <v>0.52500999999999998</v>
+      </c>
+      <c r="L22" s="14">
+        <v>0.22294</v>
+      </c>
+      <c r="M22" s="14">
+        <v>0.42120999999999997</v>
+      </c>
       <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="B23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="14">
+        <v>350</v>
+      </c>
       <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
+      <c r="I23" s="15">
+        <v>12</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0.24137</v>
+      </c>
+      <c r="K23" s="14">
+        <v>0.45931</v>
+      </c>
+      <c r="L23" s="14">
+        <v>0.17892</v>
+      </c>
+      <c r="M23" s="14">
+        <v>0.35733999999999999</v>
+      </c>
+      <c r="N23" s="19"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -4303,7 +4429,79 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="J1:J9 J24:K1048576 J10:K21">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:J1048576 J1:J21">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:K9 K2">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:K1048576 K1:K21">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4315,8 +4513,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:K1048576 J1:J9">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="L24:L1048576 L2:L21">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4327,7 +4525,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
+  <conditionalFormatting sqref="M1:M1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4339,32 +4537,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K9 K2">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L1048576">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M1048576">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="M24:M1048576 M2:M21">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\OneDrive\Documenti\GitHub\FoodX-251_Classification\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8CE8BD-D302-4BE1-A3C5-2EE13AFF1F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D26F66-0B30-4F34-A43D-03ACB42EA668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
   <si>
     <t>Type</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>30121 (Small)</t>
+  </si>
+  <si>
+    <t>MobileNetV3 Fine Tune DataAug</t>
   </si>
 </sst>
 </file>
@@ -301,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -364,12 +367,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -830,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,7 +1085,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -1104,7 +1101,7 @@
       <c r="F8" s="14">
         <v>120</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="14">
         <v>350</v>
       </c>
       <c r="H8" s="19"/>
@@ -1738,15 +1735,35 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="B24" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="14">
+        <v>120</v>
+      </c>
+      <c r="G24" s="14">
+        <v>350</v>
+      </c>
       <c r="H24" s="14"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
+      <c r="J24" s="13">
+        <v>0.20193</v>
+      </c>
+      <c r="K24" s="14">
+        <v>0.40411000000000002</v>
+      </c>
+      <c r="L24" s="14">
+        <v>0.1457</v>
+      </c>
+      <c r="M24" s="14">
+        <v>0.29320000000000002</v>
+      </c>
       <c r="N24" s="14"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\OneDrive\Documenti\GitHub\FoodX-251_Classification\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D26F66-0B30-4F34-A43D-03ACB42EA668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C5E044-7CEE-42DF-81FE-38E205E15E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
   <si>
     <t>Type</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>MobileNetV3 Fine Tune DataAug</t>
+  </si>
+  <si>
+    <t>AlexNet (4096)</t>
   </si>
 </sst>
 </file>
@@ -827,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +849,7 @@
     <col min="11" max="11" width="21.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="23.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="27.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="23" customWidth="1"/>
+    <col min="14" max="14" width="42.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -1770,30 +1773,76 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="B25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="14">
+        <v>120</v>
+      </c>
+      <c r="G25" s="14">
+        <v>280</v>
+      </c>
       <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
+      <c r="I25" s="15">
+        <v>5</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0.16183</v>
+      </c>
+      <c r="K25" s="14">
+        <v>0.34416999999999998</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0.11897000000000001</v>
+      </c>
+      <c r="M25" s="14">
+        <v>0.26905000000000001</v>
+      </c>
       <c r="N25" s="14"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
+      <c r="B26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="14">
+        <v>120</v>
+      </c>
+      <c r="G26" s="14">
+        <v>280</v>
+      </c>
+      <c r="H26" s="14">
+        <v>63</v>
+      </c>
+      <c r="I26" s="15">
+        <v>1</v>
+      </c>
+      <c r="J26" s="13">
+        <v>0.10738</v>
+      </c>
+      <c r="K26" s="14">
+        <v>0.24237</v>
+      </c>
+      <c r="L26" s="14">
+        <v>7.3370000000000005E-2</v>
+      </c>
+      <c r="M26" s="14">
+        <v>0.17383000000000001</v>
+      </c>
       <c r="N26" s="14"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -4446,8 +4495,8 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="J1:J9 J24:K1048576 J10:K21">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="J1:J9 J10:K21 J24:K1048576">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4470,8 +4519,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J1048576 J1:J21">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="J1:J21 J24:J1048576">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4495,7 +4544,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K9 K2">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4506,8 +4555,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24:K1048576 K1:K21">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="K1:K21 K24:K1048576">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4530,8 +4579,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L24:L1048576 L2:L21">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="L2:L21 L24:L1048576">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4554,8 +4603,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:M1048576 M2:M21">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="M2:M21 M24:M1048576">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\OneDrive\Documenti\GitHub\FoodX-251_Classification\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C5E044-7CEE-42DF-81FE-38E205E15E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B30EB4B-6C0D-4897-86F6-BF0436302771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="57">
   <si>
     <t>Type</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>AlexNet (4096)</t>
+  </si>
+  <si>
+    <t>ResNet (2048)</t>
+  </si>
+  <si>
+    <t>SIFT (feat = 10, im = 300, k = 128)</t>
+  </si>
+  <si>
+    <t>Color + LBP</t>
   </si>
 </sst>
 </file>
@@ -307,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -360,6 +369,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -830,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="L18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,24 +868,24 @@
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="20" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="20" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1849,42 +1861,96 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="B27" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="14">
+        <v>570</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
+      <c r="I27" s="15">
+        <v>3</v>
+      </c>
+      <c r="J27" s="13">
+        <v>0.24512</v>
+      </c>
+      <c r="K27" s="14">
+        <v>0.48598999999999998</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0.18309</v>
+      </c>
+      <c r="M27" s="14">
+        <v>0.37685000000000002</v>
+      </c>
       <c r="N27" s="14"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
+      <c r="B28" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="14">
+        <v>570</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="14">
+        <v>48</v>
+      </c>
+      <c r="I28" s="15">
+        <v>1</v>
+      </c>
+      <c r="J28" s="13">
+        <v>0.18209</v>
+      </c>
+      <c r="K28" s="14">
+        <v>0.35792000000000002</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0.12964000000000001</v>
+      </c>
+      <c r="M28" s="14">
+        <v>0.26588000000000001</v>
+      </c>
       <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="15"/>
-      <c r="J29" s="13"/>
+      <c r="J29" s="20"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
@@ -1894,7 +1960,15 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
@@ -1909,31 +1983,71 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="B31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="14">
+        <v>69</v>
+      </c>
+      <c r="G31" s="14">
+        <v>383</v>
+      </c>
       <c r="H31" s="14"/>
       <c r="I31" s="15"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
+      <c r="J31" s="13">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K31" s="14">
+        <v>2.6009999999999998E-2</v>
+      </c>
+      <c r="L31" s="14">
+        <v>4.2519999999999997E-3</v>
+      </c>
+      <c r="M31" s="14">
+        <v>2.2089999999999999E-2</v>
+      </c>
       <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+      <c r="B32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="14">
+        <v>69</v>
+      </c>
+      <c r="G32" s="14">
+        <v>383</v>
+      </c>
       <c r="H32" s="14"/>
       <c r="I32" s="15"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
+      <c r="J32" s="13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K32" s="14">
+        <v>3.6601000000000002E-2</v>
+      </c>
+      <c r="L32" s="14">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="M32" s="14">
+        <v>2.784E-2</v>
+      </c>
+      <c r="N32" s="19"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -4497,6 +4611,18 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J1:J9 J10:K21 J24:K1048576">
     <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J21 J24:J1048576">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4519,8 +4645,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J21 J24:J1048576">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="K1:K21 K24:K1048576">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4545,18 +4671,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K9 K2">
     <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K21 K24:K1048576">
-    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\OneDrive\Documenti\GitHub\FoodX-251_Classification\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B30EB4B-6C0D-4897-86F6-BF0436302771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFAE8CC-36A9-4799-80FA-613B0E57D176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="58">
   <si>
     <t>Type</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Color + LBP</t>
+  </si>
+  <si>
+    <t>Mantengo le proporzioni</t>
   </si>
 </sst>
 </file>
@@ -316,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -382,6 +385,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,7 +870,7 @@
     <col min="14" max="14" width="42.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -887,7 +893,7 @@
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
     </row>
-    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,7 +937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -963,7 +969,7 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -995,7 +1001,7 @@
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1027,7 +1033,7 @@
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1059,7 +1065,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1086,10 +1092,10 @@
       <c r="J7" s="13">
         <v>0.24679000000000001</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="24">
         <v>0.49291299999999999</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="24">
         <v>0.18784390000000001</v>
       </c>
       <c r="M7" s="14">
@@ -1099,7 +1105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1137,7 +1143,7 @@
       </c>
       <c r="N8" s="19"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1176,8 +1182,9 @@
         <v>0.22286</v>
       </c>
       <c r="N9" s="14"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1217,7 +1224,7 @@
       </c>
       <c r="N10" s="14"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1259,7 +1266,7 @@
       </c>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1299,7 +1306,7 @@
       </c>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1341,7 +1348,7 @@
       </c>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1381,7 +1388,7 @@
       </c>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1421,7 +1428,7 @@
       </c>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2053,31 +2060,79 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+      <c r="B33" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="14">
+        <v>180</v>
+      </c>
+      <c r="G33" s="14">
+        <v>385</v>
+      </c>
       <c r="H33" s="14"/>
       <c r="I33" s="15"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
+      <c r="J33" s="13">
+        <v>0.27446999999999999</v>
+      </c>
+      <c r="K33" s="14">
+        <v>0.53234899999999996</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0.20018</v>
+      </c>
+      <c r="M33" s="14">
+        <v>0.40244999999999997</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
+      <c r="B34" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="14">
+        <v>180</v>
+      </c>
+      <c r="G34" s="14">
+        <v>385</v>
+      </c>
+      <c r="H34" s="14">
+        <v>120</v>
+      </c>
+      <c r="I34" s="15">
+        <v>1</v>
+      </c>
+      <c r="J34" s="13">
+        <v>0.16649</v>
+      </c>
+      <c r="K34" s="14">
+        <v>0.34166999999999997</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0.11589000000000001</v>
+      </c>
+      <c r="M34" s="14">
+        <v>0.2387</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\OneDrive\Documenti\GitHub\FoodX-251_Classification\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFAE8CC-36A9-4799-80FA-613B0E57D176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64114D7D-9751-4154-B705-9014F1D6AEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="61">
   <si>
     <t>Type</t>
   </si>
@@ -199,6 +199,15 @@
   </si>
   <si>
     <t>Mantengo le proporzioni</t>
+  </si>
+  <si>
+    <t>9651 (Retrieval)</t>
+  </si>
+  <si>
+    <t>Pulizia Outlier con Pipeline Centroid (k=25)</t>
+  </si>
+  <si>
+    <t>Pipeline Degradato, Togliamo alcuni elementi Mantenimento proporzioni</t>
   </si>
 </sst>
 </file>
@@ -319,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -385,9 +394,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +864,7 @@
     <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -867,7 +873,7 @@
     <col min="11" max="11" width="21.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="23.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="27.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="67.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -1092,10 +1098,10 @@
       <c r="J7" s="13">
         <v>0.24679000000000001</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="14">
         <v>0.49291299999999999</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="14">
         <v>0.18784390000000001</v>
       </c>
       <c r="M7" s="14">
@@ -2138,46 +2144,129 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+      <c r="B35" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="14">
+        <v>406</v>
+      </c>
+      <c r="G35" s="14">
+        <v>385</v>
+      </c>
       <c r="H35" s="14"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
+      <c r="I35" s="15">
+        <v>6</v>
+      </c>
+      <c r="J35" s="13">
+        <v>0.29388999999999998</v>
+      </c>
+      <c r="K35" s="14">
+        <v>0.56103000000000003</v>
+      </c>
+      <c r="L35" s="14">
+        <v>0.21310000000000001</v>
+      </c>
+      <c r="M35" s="14">
+        <v>0.42737999999999998</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
+      <c r="B36" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="14">
+        <v>406</v>
+      </c>
+      <c r="G36" s="14">
+        <v>385</v>
+      </c>
+      <c r="H36" s="14">
+        <v>228</v>
+      </c>
+      <c r="I36" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="J36" s="13">
+        <v>0.22728000000000001</v>
+      </c>
+      <c r="K36" s="14">
+        <v>0.41454000000000002</v>
+      </c>
+      <c r="L36" s="14">
+        <v>0.15290899999999999</v>
+      </c>
+      <c r="M36" s="14">
+        <v>0.28888999999999998</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
+      <c r="B37" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="14">
+        <v>250</v>
+      </c>
+      <c r="G37" s="14">
+        <v>385</v>
+      </c>
       <c r="H37" s="14"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
+      <c r="I37" s="15">
+        <v>4</v>
+      </c>
+      <c r="J37" s="13">
+        <v>0.29389999999999999</v>
+      </c>
+      <c r="K37" s="14">
+        <v>0.56103000000000003</v>
+      </c>
+      <c r="L37" s="14">
+        <v>0.24012</v>
+      </c>
+      <c r="M37" s="14">
+        <v>0.47721999999999998</v>
+      </c>
+      <c r="N37" s="14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\OneDrive\Documenti\GitHub\FoodX-251_Classification\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64114D7D-9751-4154-B705-9014F1D6AEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC8C336-4381-4D61-B280-86FEF00EF08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="66">
   <si>
     <t>Type</t>
   </si>
@@ -208,6 +208,21 @@
   </si>
   <si>
     <t>Pipeline Degradato, Togliamo alcuni elementi Mantenimento proporzioni</t>
+  </si>
+  <si>
+    <t>27 min</t>
+  </si>
+  <si>
+    <t>17 min</t>
+  </si>
+  <si>
+    <t>Pipeline Degradato, Togliamo alcuni elementi Mantenimento proporzioni e Data aug</t>
+  </si>
+  <si>
+    <t>Object Proposal Small</t>
+  </si>
+  <si>
+    <t>Tutto</t>
   </si>
 </sst>
 </file>
@@ -854,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="G22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2272,76 +2287,192 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="B38" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="14">
+        <v>385</v>
+      </c>
       <c r="H38" s="14"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
+      <c r="I38" s="15">
+        <v>23</v>
+      </c>
+      <c r="J38" s="13">
+        <v>0.29231000000000001</v>
+      </c>
+      <c r="K38" s="14">
+        <v>0.53868000000000005</v>
+      </c>
+      <c r="L38" s="14">
+        <v>0.22244</v>
+      </c>
+      <c r="M38" s="14">
+        <v>0.42620999999999998</v>
+      </c>
       <c r="N38" s="14"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
+      <c r="B39" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="14">
+        <v>383</v>
+      </c>
       <c r="H39" s="14"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
+      <c r="I39" s="15">
+        <v>12</v>
+      </c>
+      <c r="J39" s="13">
+        <v>0.25429000000000002</v>
+      </c>
+      <c r="K39" s="14">
+        <v>0.48039999999999999</v>
+      </c>
+      <c r="L39" s="14">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="M39" s="14">
+        <v>0.36868000000000001</v>
+      </c>
       <c r="N39" s="14"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="B40" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="14">
+        <v>385</v>
+      </c>
       <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
+      <c r="I40" s="15">
+        <v>23</v>
+      </c>
+      <c r="J40" s="13">
+        <v>0.2923</v>
+      </c>
+      <c r="K40" s="14">
+        <v>0.53869999999999996</v>
+      </c>
+      <c r="L40" s="14">
+        <v>0.24493999999999999</v>
+      </c>
+      <c r="M40" s="14">
+        <v>0.46515000000000001</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="12"/>
+      <c r="B41" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="15"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
+      <c r="J41" s="13">
+        <v>0.242287</v>
+      </c>
+      <c r="K41" s="14">
+        <v>0.47155999999999998</v>
+      </c>
+      <c r="L41" s="14">
+        <v>0.15132999999999999</v>
+      </c>
+      <c r="M41" s="14">
+        <v>0.32327</v>
+      </c>
+      <c r="N41" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="12"/>
+      <c r="B42" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="15"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
+      <c r="J42" s="13">
+        <v>0.2923</v>
+      </c>
+      <c r="K42" s="14">
+        <v>0.53868000000000005</v>
+      </c>
+      <c r="L42" s="14">
+        <v>0.22239999999999999</v>
+      </c>
+      <c r="M42" s="14">
+        <v>0.42620999999999998</v>
+      </c>
+      <c r="N42" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\OneDrive\Documenti\GitHub\FoodX-251_Classification\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC8C336-4381-4D61-B280-86FEF00EF08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61518680-ACEA-4CE4-9045-F81915B3A27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
